--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>PJ名</t>
   </si>
@@ -44,21 +44,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -68,21 +68,21 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能名</t>
@@ -92,14 +92,14 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引ID</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引名</t>
@@ -109,7 +109,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能説明</t>
@@ -119,31 +119,21 @@
     <rPh sb="2" eb="4">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引説明</t>
     <rPh sb="0" eb="4">
       <t>トリヒキセツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -156,28 +146,28 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>処理方式</t>
     <rPh sb="0" eb="4">
       <t>ショリホウシキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1. システム機能一覧</t>
@@ -187,38 +177,38 @@
     <rPh sb="9" eb="11">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>システム機能一覧</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>No.</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>目次</t>
-    <rPh sb="0" eb="2">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>システム機能一覧</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>変更箇所（項番等）</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -229,7 +219,7 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>A101</t>
@@ -248,14 +238,14 @@
     <rPh sb="19" eb="21">
       <t>テイキョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ユーザには、以下２つのロールが存在する。
@@ -267,7 +257,7 @@
     <rPh sb="15" eb="17">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10102</t>
@@ -295,7 +285,7 @@
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10104</t>
@@ -305,7 +295,7 @@
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面上で発生したエラーについてその内容と対処方法をユーザに表示する。</t>
@@ -327,7 +317,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>A102</t>
@@ -337,7 +327,7 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プロジェクトを管理対象として登録し、そのデータの更新や参照、削除を行う。</t>
@@ -359,7 +349,7 @@
     <rPh sb="33" eb="34">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10201</t>
@@ -369,7 +359,7 @@
     <rPh sb="6" eb="8">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>管理対象とするプロジェクトのデータ1件を登録する。</t>
@@ -382,7 +372,7 @@
     <rPh sb="20" eb="22">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>マネージャーのみが使用可能。</t>
@@ -392,14 +382,14 @@
     <rPh sb="11" eb="13">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>都度バッチ</t>
     <rPh sb="0" eb="2">
       <t>ツド</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>A106</t>
@@ -415,7 +405,7 @@
     <rPh sb="14" eb="16">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>期間内プロジェクト一覧出力バッチ</t>
@@ -425,7 +415,7 @@
     <rPh sb="9" eb="13">
       <t>イチランシュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>「期間内」であるプロジェクトの一覧をCSVファイルに出力する。</t>
@@ -438,11 +428,11 @@
     <rPh sb="26" eb="28">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10101</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユーザに対し、ユーザID・パスワードでのForm認証を行う。</t>
@@ -455,29 +445,29 @@
     <rPh sb="27" eb="28">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ログイン中のユーザをログアウトさせる。</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -492,31 +482,27 @@
       </rPr>
       <t>IS</t>
     </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>BA10602</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト一覧出力</t>
@@ -526,16 +512,111 @@
     <rPh sb="8" eb="10">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WA10202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. システム機能一覧</t>
+    <rPh sb="7" eb="11">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。一覧のリンクを押下するとプロジェクトのデータ1件の詳細画面を表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクト照会</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WA10202 プロジェクト照会 追加</t>
+    <rPh sb="14" eb="16">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -548,12 +629,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -670,6 +745,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -917,14 +998,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -936,31 +1017,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,31 +1060,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,14 +1092,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1029,38 +1110,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1075,25 +1156,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1103,8 +1184,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1222,80 +1408,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1306,32 +1426,119 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1339,103 +1546,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1593,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -2119,7 +2230,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2270,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2169,12 +2282,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="78">
+      <c r="I25" s="81">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43404</v>
-      </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
+        <v>43804</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
@@ -2747,9 +2860,9 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2772,55 +2885,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="95" t="s">
+      <c r="A1" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="79">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="148" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="114">
         <v>43404</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="116"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2828,53 +2941,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="92" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="79" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="114">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+        <v>43804</v>
+      </c>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="116"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2882,45 +2995,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="116"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2955,1192 +3068,1050 @@
     </row>
     <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82" t="s">
+      <c r="E7" s="119"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="82" t="s">
+      <c r="H7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="82" t="s">
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="83"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="118"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="100">
+        <v>1</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="131" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="137" t="s">
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="137" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="139"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="109"/>
+      <c r="AI8" s="110"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="96">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="84">
+        <v>43804</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="90"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="127"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="90"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="127"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="90"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="129"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="127"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="90"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="127"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="90"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="127"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="90"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="126"/>
-      <c r="AI15" s="127"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="90"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
-      <c r="AB16" s="129"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="127"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="90"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="127"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="90"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="127"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="90"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="127"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="90"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="126"/>
-      <c r="AH20" s="126"/>
-      <c r="AI20" s="127"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="90"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
-      <c r="AC21" s="129"/>
-      <c r="AD21" s="129"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="127"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="90"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="126"/>
-      <c r="AH22" s="126"/>
-      <c r="AI22" s="127"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="127"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="90"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="127"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="90"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="90"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="90"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="127"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="90"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="127"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="90"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="126"/>
-      <c r="AH29" s="126"/>
-      <c r="AI29" s="127"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="90"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="129"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="126"/>
-      <c r="AI30" s="127"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="90"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="129"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="127"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="127"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="90"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="127"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="90"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4164,8 +4135,164 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4320,163 +4447,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="104" t="str">
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="118" t="str">
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="118" t="str">
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="144" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+        <v>43804</v>
+      </c>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118" t="str">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4536,7 +4663,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -4597,7 +4724,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -5939,6 +6066,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5948,16 +6083,8 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5970,7 +6097,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5982,163 +6109,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="175" t="str">
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="186" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="118" t="str">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="118" t="str">
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="144" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+        <v>43804</v>
+      </c>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="118" t="str">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6189,533 +6316,547 @@
     </row>
     <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="156" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="150" t="s">
+      <c r="C7" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="150" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="150" t="s">
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="150" t="s">
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="152"/>
-      <c r="T7" s="150" t="s">
+      <c r="S7" s="181"/>
+      <c r="T7" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="150" t="s">
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="150" t="s">
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="181"/>
+      <c r="AK7" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="152"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="181"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="157"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="153"/>
-      <c r="AI8" s="154"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="153"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="155"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="185"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185"/>
+      <c r="AG8" s="183"/>
+      <c r="AH8" s="182"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="183"/>
+      <c r="AK8" s="182"/>
+      <c r="AL8" s="185"/>
+      <c r="AM8" s="185"/>
+      <c r="AN8" s="185"/>
+      <c r="AO8" s="185"/>
+      <c r="AP8" s="183"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="197"/>
+      <c r="F9" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="165" t="s">
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="165" t="s">
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="197"/>
+      <c r="R9" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="161"/>
+      <c r="T9" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="160"/>
-      <c r="T9" s="158" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="159"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="158" t="s">
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="161"/>
+      <c r="AK9" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="159"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL9" s="159"/>
-      <c r="AM9" s="159"/>
-      <c r="AN9" s="159"/>
-      <c r="AO9" s="159"/>
-      <c r="AP9" s="160"/>
+      <c r="AL9" s="163"/>
+      <c r="AM9" s="163"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="161"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
+        <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="158" t="s">
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="162" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="161"/>
+      <c r="T10" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="160"/>
-      <c r="T10" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="159"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="160"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="161"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="163"/>
+      <c r="AM10" s="163"/>
+      <c r="AN10" s="163"/>
+      <c r="AO10" s="163"/>
+      <c r="AP10" s="161"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
+        <f t="shared" ref="C11:C14" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="158" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="161"/>
+      <c r="T11" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="160"/>
-      <c r="T11" s="158" t="s">
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="158" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="159"/>
-      <c r="AM11" s="159"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="160"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="161"/>
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="163"/>
+      <c r="AN11" s="163"/>
+      <c r="AO11" s="163"/>
+      <c r="AP11" s="161"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="158" t="s">
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="161"/>
+      <c r="T12" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="160"/>
-      <c r="T12" s="158" t="s">
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="158" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="159"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="160"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="161"/>
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="163"/>
+      <c r="AM12" s="163"/>
+      <c r="AN12" s="163"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="161"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="200" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="197"/>
+      <c r="F13" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="162" t="s">
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="162" t="s">
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="158" t="s">
+      <c r="S13" s="161"/>
+      <c r="T13" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="160"/>
-      <c r="T13" s="158" t="s">
+      <c r="U13" s="163"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="163"/>
+      <c r="X13" s="163"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="158" t="s">
+      <c r="AA13" s="163"/>
+      <c r="AB13" s="163"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="163"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="163"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI13" s="159"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="161" t="s">
+      <c r="AL13" s="163"/>
+      <c r="AM13" s="163"/>
+      <c r="AN13" s="163"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="161"/>
+    </row>
+    <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="77">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="160" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="161"/>
+      <c r="T14" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="160" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="160"/>
+      <c r="AL14" s="163"/>
+      <c r="AM14" s="163"/>
+      <c r="AN14" s="163"/>
+      <c r="AO14" s="163"/>
+      <c r="AP14" s="161"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="77">
+        <f>C14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D15" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="161"/>
+      <c r="F15" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="161"/>
+      <c r="T15" s="162" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="161"/>
+      <c r="Z15" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="AL13" s="159"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="159"/>
-      <c r="AO13" s="159"/>
-      <c r="AP13" s="160"/>
-    </row>
-    <row r="14" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="77">
-        <v>6</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="160"/>
-      <c r="T14" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="161" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="159"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="159"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="158" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="159"/>
-      <c r="AM14" s="159"/>
-      <c r="AN14" s="159"/>
-      <c r="AO14" s="159"/>
-      <c r="AP14" s="160"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
+      <c r="AI15" s="163"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="163"/>
+      <c r="AM15" s="163"/>
+      <c r="AN15" s="163"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="161"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
@@ -7245,50 +7386,73 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
     </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="79">
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="Z14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7305,24 +7469,50 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C01EF-F024-4CA9-93AE-7981B44C0BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="375" windowWidth="16440" windowHeight="13305" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>PJ名</t>
   </si>
@@ -608,11 +617,62 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>WA10203</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10203 プロジェクト更新 追加</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>管理対象とするプロジェクトのデータ1件を更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -1005,7 +1065,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1184,6 +1244,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1193,104 +1262,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1408,6 +1384,114 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1417,25 +1501,106 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,111 +1624,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1586,7 +1682,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1601,7 +1703,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1685,7 +1793,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1785,7 +1899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1935,7 +2055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1977,7 +2097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2010,9 +2130,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2045,6 +2182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2220,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2282,12 +2436,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="81">
+      <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43804</v>
-      </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+        <v>43895</v>
+      </c>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
@@ -2869,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2885,55 +3039,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="139" t="s">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="121" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="148" t="s">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="114">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="86">
         <v>43404</v>
       </c>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="116"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2941,53 +3095,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="121" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="127" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="114">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43804</v>
-      </c>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="116"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2995,45 +3149,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="116"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3070,1048 +3224,1218 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="117" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="117" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="117" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="118"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="141">
         <v>1</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
         <v>43404</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105" t="s">
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="108" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="110"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="151"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="126">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="84">
+      <c r="C9" s="127"/>
+      <c r="D9" s="128">
         <v>43804</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="98" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="95" t="s">
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="99" t="s">
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="88" t="s">
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="90"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="90"/>
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="128">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="136"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="90"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="90"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="138"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="136"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="90"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="90"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="136"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="138"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="136"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="90"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="136"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="90"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="90"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="136"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="90"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="138"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="90"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="136"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="90"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="136"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="90"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="138"/>
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="135"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="90"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="90"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="138"/>
+      <c r="AA32" s="138"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="136"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="136"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4135,162 +4459,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4301,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4447,163 +4615,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="130" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="139" t="str">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="153" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="155" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="153" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="157">
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43804</v>
-      </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6066,14 +6234,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6083,6 +6243,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6093,11 +6261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6109,163 +6277,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="171" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="121" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="153" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="121" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="153" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="157">
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43804</v>
-      </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="153" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6321,390 +6489,390 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="180" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="180" t="s">
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="180" t="s">
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="181"/>
-      <c r="T7" s="180" t="s">
+      <c r="S7" s="171"/>
+      <c r="T7" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="180" t="s">
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="184"/>
-      <c r="AD7" s="184"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="184"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="180" t="s">
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="184"/>
-      <c r="AJ7" s="181"/>
-      <c r="AK7" s="180" t="s">
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="184"/>
-      <c r="AN7" s="184"/>
-      <c r="AO7" s="184"/>
-      <c r="AP7" s="181"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="170"/>
+      <c r="AP7" s="171"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="199"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="182"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185"/>
-      <c r="AG8" s="183"/>
-      <c r="AH8" s="182"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="183"/>
-      <c r="AK8" s="182"/>
-      <c r="AL8" s="185"/>
-      <c r="AM8" s="185"/>
-      <c r="AN8" s="185"/>
-      <c r="AO8" s="185"/>
-      <c r="AP8" s="183"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="172"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="174"/>
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="173"/>
+      <c r="AN8" s="173"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="174"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="D9" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="197"/>
-      <c r="F9" s="195" t="s">
+      <c r="E9" s="178"/>
+      <c r="F9" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="195" t="s">
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="160" t="s">
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="161"/>
-      <c r="T9" s="162" t="s">
+      <c r="S9" s="166"/>
+      <c r="T9" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="160" t="s">
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="162" t="s">
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="163"/>
-      <c r="AJ9" s="161"/>
-      <c r="AK9" s="160" t="s">
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="166"/>
+      <c r="AK9" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="163"/>
-      <c r="AN9" s="163"/>
-      <c r="AO9" s="163"/>
-      <c r="AP9" s="161"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="166"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="162" t="s">
+      <c r="D10" s="199"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="161"/>
-      <c r="T10" s="162" t="s">
+      <c r="S10" s="166"/>
+      <c r="T10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="160" t="s">
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="162" t="s">
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="161"/>
-      <c r="AK10" s="162"/>
-      <c r="AL10" s="163"/>
-      <c r="AM10" s="163"/>
-      <c r="AN10" s="163"/>
-      <c r="AO10" s="163"/>
-      <c r="AP10" s="161"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="167"/>
+      <c r="AP10" s="166"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
-        <f t="shared" ref="C11:C14" si="0">C10+1</f>
+        <f t="shared" ref="C11:C13" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="162" t="s">
+      <c r="D11" s="199"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="161"/>
-      <c r="T11" s="162" t="s">
+      <c r="S11" s="166"/>
+      <c r="T11" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="162" t="s">
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="163"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="162" t="s">
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="163"/>
-      <c r="AJ11" s="161"/>
-      <c r="AK11" s="162"/>
-      <c r="AL11" s="163"/>
-      <c r="AM11" s="163"/>
-      <c r="AN11" s="163"/>
-      <c r="AO11" s="163"/>
-      <c r="AP11" s="161"/>
+      <c r="AI11" s="167"/>
+      <c r="AJ11" s="166"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="167"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="167"/>
+      <c r="AP11" s="166"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="162" t="s">
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="161"/>
-      <c r="T12" s="162" t="s">
+      <c r="S12" s="166"/>
+      <c r="T12" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="162" t="s">
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="167"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="161"/>
-      <c r="AH12" s="162" t="s">
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="167"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="167"/>
+      <c r="AF12" s="167"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="161"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="163"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="163"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="161"/>
+      <c r="AI12" s="167"/>
+      <c r="AJ12" s="166"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="167"/>
+      <c r="AM12" s="167"/>
+      <c r="AN12" s="167"/>
+      <c r="AO12" s="167"/>
+      <c r="AP12" s="166"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="200" t="s">
+      <c r="D13" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="197"/>
-      <c r="F13" s="200" t="s">
+      <c r="E13" s="178"/>
+      <c r="F13" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="200" t="s">
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="162" t="s">
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="161"/>
-      <c r="T13" s="162" t="s">
+      <c r="S13" s="166"/>
+      <c r="T13" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="162" t="s">
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="163"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="162" t="s">
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="163"/>
-      <c r="AJ13" s="161"/>
-      <c r="AK13" s="160" t="s">
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="163"/>
-      <c r="AM13" s="163"/>
-      <c r="AN13" s="163"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="161"/>
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="166"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
-        <f t="shared" si="0"/>
+        <f>C13+1</f>
         <v>6</v>
       </c>
       <c r="D14" s="78"/>
@@ -6721,186 +6889,197 @@
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="79"/>
-      <c r="R14" s="160" t="s">
+      <c r="R14" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="161"/>
-      <c r="T14" s="160" t="s">
+      <c r="S14" s="166"/>
+      <c r="T14" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="160" t="s">
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="162" t="s">
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="161"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="163"/>
-      <c r="AM14" s="163"/>
-      <c r="AN14" s="163"/>
-      <c r="AO14" s="163"/>
-      <c r="AP14" s="161"/>
-    </row>
-    <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="77">
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="166"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="167"/>
+      <c r="AO14" s="167"/>
+      <c r="AP14" s="166"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="84">
         <f>C14+1</f>
         <v>7</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="81"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="207" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="209"/>
+      <c r="T15" s="207" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="208"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="209"/>
+      <c r="Z15" s="207" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="209"/>
+      <c r="AH15" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="210"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
+      <c r="AP15" s="209"/>
+    </row>
+    <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="77">
+        <f>C15+1</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="160" t="s">
+      <c r="E16" s="204"/>
+      <c r="F16" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="160" t="s">
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="160" t="s">
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="161"/>
-      <c r="T15" s="162" t="s">
+      <c r="S16" s="166"/>
+      <c r="T16" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="160" t="s">
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="162" t="s">
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="AI15" s="163"/>
-      <c r="AJ15" s="161"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="163"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="163"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="161"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="167"/>
+      <c r="AM16" s="167"/>
+      <c r="AN16" s="167"/>
+      <c r="AO16" s="167"/>
+      <c r="AP16" s="166"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
@@ -7430,13 +7609,115 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
     </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
+  <mergeCells count="84">
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z13:AG13"/>
@@ -7453,64 +7734,11 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C01EF-F024-4CA9-93AE-7981B44C0BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="375" windowWidth="16440" windowHeight="13305" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>PJ名</t>
   </si>
@@ -44,21 +53,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -68,21 +77,21 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能名</t>
@@ -92,14 +101,14 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引ID</t>
     <rPh sb="0" eb="2">
       <t>トリヒキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引名</t>
@@ -109,7 +118,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>機能説明</t>
@@ -119,31 +128,21 @@
     <rPh sb="2" eb="4">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引説明</t>
     <rPh sb="0" eb="4">
       <t>トリヒキセツメイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -156,28 +155,28 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>処理方式</t>
     <rPh sb="0" eb="4">
       <t>ショリホウシキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1. システム機能一覧</t>
@@ -187,22 +186,22 @@
     <rPh sb="9" eb="11">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システム機能一覧</t>
@@ -212,11 +211,11 @@
     <rPh sb="6" eb="8">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -229,7 +228,7 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>A101</t>
@@ -248,14 +247,14 @@
     <rPh sb="19" eb="21">
       <t>テイキョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ユーザには、以下２つのロールが存在する。
@@ -267,7 +266,7 @@
     <rPh sb="15" eb="17">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10102</t>
@@ -295,7 +294,7 @@
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10104</t>
@@ -305,7 +304,7 @@
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面上で発生したエラーについてその内容と対処方法をユーザに表示する。</t>
@@ -327,7 +326,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>A102</t>
@@ -337,7 +336,7 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プロジェクトを管理対象として登録し、そのデータの更新や参照、削除を行う。</t>
@@ -359,7 +358,7 @@
     <rPh sb="33" eb="34">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10201</t>
@@ -369,7 +368,7 @@
     <rPh sb="6" eb="8">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>管理対象とするプロジェクトのデータ1件を登録する。</t>
@@ -382,7 +381,7 @@
     <rPh sb="20" eb="22">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>マネージャーのみが使用可能。</t>
@@ -392,14 +391,14 @@
     <rPh sb="11" eb="13">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>都度バッチ</t>
     <rPh sb="0" eb="2">
       <t>ツド</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>A106</t>
@@ -415,7 +414,7 @@
     <rPh sb="14" eb="16">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>期間内プロジェクト一覧出力バッチ</t>
@@ -425,7 +424,7 @@
     <rPh sb="9" eb="13">
       <t>イチランシュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>「期間内」であるプロジェクトの一覧をCSVファイルに出力する。</t>
@@ -438,11 +437,11 @@
     <rPh sb="26" eb="28">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WA10101</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユーザに対し、ユーザID・パスワードでのForm認証を行う。</t>
@@ -455,29 +454,29 @@
     <rPh sb="27" eb="28">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ログイン中のユーザをログアウトさせる。</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -492,31 +491,27 @@
       </rPr>
       <t>IS</t>
     </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>BA10602</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクト一覧出力</t>
@@ -526,16 +521,162 @@
     <rPh sb="8" eb="10">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WA10202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. システム機能一覧</t>
+    <rPh sb="7" eb="11">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。一覧のリンクを押下するとプロジェクトのデータ1件の詳細画面を表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクト照会</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WA10202 プロジェクト照会 追加</t>
+    <rPh sb="14" eb="16">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10203</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10203 プロジェクト更新 追加</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>管理対象とするプロジェクトのデータ1件を更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -548,12 +689,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -670,6 +805,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -917,14 +1058,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -936,31 +1077,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,31 +1120,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,14 +1152,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1029,38 +1170,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1075,25 +1216,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1103,7 +1244,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,79 +1384,103 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1501,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1339,18 +1537,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1363,31 +1549,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,21 +1624,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1475,14 +1682,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -1490,7 +1703,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1574,7 +1793,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1674,7 +1899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1824,7 +2055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1866,7 +2097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1899,9 +2130,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1934,6 +2182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2109,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2119,7 +2384,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2424,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2169,12 +2436,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="78">
+      <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43404</v>
-      </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
+        <v>43895</v>
+      </c>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
@@ -2747,16 +3014,16 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2772,55 +3039,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="95" t="s">
+      <c r="A1" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="79">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="86">
         <v>43404</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2828,53 +3095,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="92" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="79" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2882,45 +3149,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2955,1030 +3222,1058 @@
     </row>
     <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="82" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="82" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="83"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="141">
+        <v>1</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="131" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="137" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="137" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="139"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="151"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="126">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128">
+        <v>43804</v>
+      </c>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="127"/>
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="128">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="136"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="127"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="129"/>
-      <c r="Y12" s="129"/>
-      <c r="Z12" s="129"/>
-      <c r="AA12" s="129"/>
-      <c r="AB12" s="129"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="127"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="138"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="136"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="129"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="127"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="127"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="136"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="126"/>
-      <c r="AI15" s="127"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="138"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="136"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="129"/>
-      <c r="AA16" s="129"/>
-      <c r="AB16" s="129"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="127"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="136"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="129"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="127"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="129"/>
-      <c r="AA18" s="129"/>
-      <c r="AB18" s="129"/>
-      <c r="AC18" s="129"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="127"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="127"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129"/>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="129"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="126"/>
-      <c r="AH20" s="126"/>
-      <c r="AI20" s="127"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="129"/>
-      <c r="AB21" s="129"/>
-      <c r="AC21" s="129"/>
-      <c r="AD21" s="129"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="127"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="126"/>
-      <c r="AH22" s="126"/>
-      <c r="AI22" s="127"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="129"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="127"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="136"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="127"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="129"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="127"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="138"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="129"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="129"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="127"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="136"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="129"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="126"/>
-      <c r="AH29" s="126"/>
-      <c r="AI29" s="127"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="136"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="129"/>
-      <c r="AA30" s="129"/>
-      <c r="AB30" s="129"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="126"/>
-      <c r="AI30" s="127"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="138"/>
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="135"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="129"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="127"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="129"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="129"/>
-      <c r="Y32" s="129"/>
-      <c r="Z32" s="129"/>
-      <c r="AA32" s="129"/>
-      <c r="AB32" s="129"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="127"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="138"/>
+      <c r="AA32" s="138"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="136"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="129"/>
-      <c r="Y33" s="129"/>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="129"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="127"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="136"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -4165,7 +4460,7 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4174,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4320,163 +4615,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="104" t="str">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="118" t="str">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="118" t="str">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="144" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -4536,7 +4831,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -4597,7 +4892,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -5957,7 +6252,7 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5966,11 +6261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5982,163 +6277,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="175" t="str">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="181" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="118" t="str">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="144">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="118" t="str">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="144" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="118" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="144" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6189,577 +6484,602 @@
     </row>
     <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="156" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="150" t="s">
+      <c r="C7" s="175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="150" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="150" t="s">
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="150" t="s">
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="152"/>
-      <c r="T7" s="150" t="s">
+      <c r="S7" s="171"/>
+      <c r="T7" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="150" t="s">
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="150" t="s">
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="152"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="170"/>
+      <c r="AP7" s="171"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="157"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="153"/>
-      <c r="AI8" s="154"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="153"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="155"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="172"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="174"/>
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="173"/>
+      <c r="AN8" s="173"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="174"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="178"/>
+      <c r="F9" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="165" t="s">
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="165" t="s">
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="166"/>
+      <c r="T9" s="168" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="160"/>
-      <c r="T9" s="158" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="159"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="158" t="s">
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="166"/>
+      <c r="AK9" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="159"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL9" s="159"/>
-      <c r="AM9" s="159"/>
-      <c r="AN9" s="159"/>
-      <c r="AO9" s="159"/>
-      <c r="AP9" s="160"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="166"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
+        <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="158" t="s">
+      <c r="D10" s="199"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="166"/>
+      <c r="T10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="160"/>
-      <c r="T10" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="159"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="160"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="167"/>
+      <c r="AP10" s="166"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
+        <f t="shared" ref="C11:C13" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="158" t="s">
+      <c r="D11" s="199"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="166"/>
+      <c r="T11" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="160"/>
-      <c r="T11" s="158" t="s">
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="158" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="158"/>
-      <c r="AL11" s="159"/>
-      <c r="AM11" s="159"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="160"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="167"/>
+      <c r="AJ11" s="166"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="167"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="167"/>
+      <c r="AP11" s="166"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="158" t="s">
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="166"/>
+      <c r="T12" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="160"/>
-      <c r="T12" s="158" t="s">
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="167"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="158" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="159"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="159"/>
-      <c r="AP12" s="160"/>
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="167"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="167"/>
+      <c r="AF12" s="167"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI12" s="167"/>
+      <c r="AJ12" s="166"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="167"/>
+      <c r="AM12" s="167"/>
+      <c r="AN12" s="167"/>
+      <c r="AO12" s="167"/>
+      <c r="AP12" s="166"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="177" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="178"/>
+      <c r="F13" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="162" t="s">
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="162" t="s">
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="158" t="s">
+      <c r="S13" s="166"/>
+      <c r="T13" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="160"/>
-      <c r="T13" s="158" t="s">
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="158" t="s">
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI13" s="159"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="161" t="s">
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="166"/>
+    </row>
+    <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="77">
+        <f>C13+1</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="166"/>
+      <c r="T14" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="165" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="168" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="166"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="167"/>
+      <c r="AO14" s="167"/>
+      <c r="AP14" s="166"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="84">
+        <f>C14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="207" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="209"/>
+      <c r="T15" s="207" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="208"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="209"/>
+      <c r="Z15" s="207" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="209"/>
+      <c r="AH15" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="210"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
+      <c r="AP15" s="209"/>
+    </row>
+    <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="77">
+        <f>C15+1</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="203" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="204"/>
+      <c r="F16" s="206" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="206" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="166"/>
+      <c r="T16" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="AL13" s="159"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="159"/>
-      <c r="AO13" s="159"/>
-      <c r="AP13" s="160"/>
-    </row>
-    <row r="14" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="77">
-        <v>6</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="160"/>
-      <c r="T14" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="161" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="159"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="159"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="158" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="159"/>
-      <c r="AM14" s="159"/>
-      <c r="AN14" s="159"/>
-      <c r="AO14" s="159"/>
-      <c r="AP14" s="160"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="167"/>
+      <c r="AM16" s="167"/>
+      <c r="AN16" s="167"/>
+      <c r="AO16" s="167"/>
+      <c r="AP16" s="166"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
@@ -7245,14 +7565,107 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
     </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="AK14:AP14"/>
+  <mergeCells count="84">
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="K10:Q10"/>
@@ -7266,8 +7679,8 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AP10"/>
     <mergeCell ref="AK12:AP12"/>
@@ -7321,8 +7734,13 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C01EF-F024-4CA9-93AE-7981B44C0BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465C76E-CBD1-4B7E-9853-EAC67DD64FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -601,13 +603,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>プロジェクト照会</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>WA10202 プロジェクト照会 追加</t>
     <rPh sb="14" eb="16">
       <t>ショウカイ</t>
@@ -667,6 +662,13 @@
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1268,6 +1270,105 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1384,104 +1485,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1492,14 +1503,20 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1507,29 +1524,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1539,108 +1643,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1695,8 +1697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8382000" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8953500" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2382,44 +2384,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="11"/>
-    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="9" width="8.875" style="11"/>
+    <col min="10" max="10" width="16.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -2427,12 +2429,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2443,42 +2445,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="15"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="15"/>
       <c r="H33" s="15"/>
       <c r="J33" s="18"/>
@@ -2488,7 +2490,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="15"/>
       <c r="H34" s="15"/>
       <c r="J34" s="31"/>
@@ -2501,522 +2503,522 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="29"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3033,61 +3035,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="102" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="111" t="s">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="93" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="120" t="s">
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="119">
         <v>43404</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3095,53 +3097,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="93" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="99" t="str">
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="119">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="121"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3149,45 +3151,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="121"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3224,1218 +3226,1062 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="141">
+      <c r="B8" s="105">
         <v>1</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107">
         <v>43404</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152" t="s">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="149" t="s">
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="151"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="115"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="126">
+      <c r="B9" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128">
+      <c r="C9" s="103"/>
+      <c r="D9" s="88">
         <v>43804</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="140" t="s">
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="136"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="94"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="128">
-        <v>43895</v>
-      </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="134" t="s">
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="136"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="94"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="136"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="94"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="136"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="94"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="134"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="136"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="94"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="136"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="94"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="136"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="94"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="136"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="94"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="138"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="136"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="94"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="138"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="136"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="94"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="136"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="94"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="136"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="136"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="136"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="94"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="135"/>
-      <c r="AH23" s="135"/>
-      <c r="AI23" s="136"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="94"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="136"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="94"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="136"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="94"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="136"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="136"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="94"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="135"/>
-      <c r="AH27" s="135"/>
-      <c r="AI27" s="136"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="94"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="136"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="94"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="135"/>
-      <c r="AH29" s="135"/>
-      <c r="AI29" s="136"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="94"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="135"/>
-      <c r="AH30" s="135"/>
-      <c r="AI30" s="136"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="94"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="135"/>
-      <c r="AH31" s="135"/>
-      <c r="AI31" s="136"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="94"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="135"/>
-      <c r="AH32" s="135"/>
-      <c r="AI32" s="136"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="94"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="135"/>
-      <c r="AH33" s="135"/>
-      <c r="AI33" s="136"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="94"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4459,6 +4305,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4479,299 +4481,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="44"/>
-    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="44"/>
-    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="44"/>
-    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="44"/>
-    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="44"/>
-    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="44"/>
-    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="44"/>
-    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="44"/>
-    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="44"/>
-    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="44"/>
-    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="44"/>
-    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="44"/>
-    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="44"/>
-    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="44"/>
-    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="44"/>
-    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="44"/>
-    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="44"/>
-    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="44"/>
-    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="44"/>
-    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="44"/>
-    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="44"/>
-    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="44"/>
-    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="44"/>
-    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="44"/>
-    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="44"/>
-    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="44"/>
-    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="44"/>
-    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="44"/>
-    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="44"/>
-    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="44"/>
-    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="44"/>
-    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="44"/>
-    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="44"/>
-    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="44"/>
-    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="44"/>
-    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="44"/>
-    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="44"/>
-    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="44"/>
-    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="44"/>
-    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="44"/>
-    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="44"/>
-    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="44"/>
-    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="44"/>
-    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="44"/>
-    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="44"/>
-    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="44"/>
-    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="44"/>
-    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="44"/>
-    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="44"/>
-    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="44"/>
-    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="44"/>
-    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="44"/>
-    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="44"/>
-    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="44"/>
-    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="44"/>
-    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="44"/>
-    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="44"/>
-    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="44"/>
-    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="44"/>
-    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="44"/>
-    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="44"/>
-    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="44"/>
-    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="44"/>
-    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="44"/>
+    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="44"/>
+    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="44"/>
+    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="44"/>
+    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="44"/>
+    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="44"/>
+    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="44"/>
+    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="44"/>
+    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="44"/>
+    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="44"/>
+    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="44"/>
+    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="44"/>
+    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="44"/>
+    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="44"/>
+    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="44"/>
+    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="44"/>
+    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="44"/>
+    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="44"/>
+    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="44"/>
+    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="44"/>
+    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="44"/>
+    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="44"/>
+    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="44"/>
+    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="44"/>
+    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="44"/>
+    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="44"/>
+    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="44"/>
+    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="44"/>
+    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="44"/>
+    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="44"/>
+    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="44"/>
+    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="44"/>
+    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="44"/>
+    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="44"/>
+    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="44"/>
+    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="44"/>
+    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="44"/>
+    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="44"/>
+    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="44"/>
+    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="44"/>
+    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="44"/>
+    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="44"/>
+    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="44"/>
+    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="44"/>
+    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="44"/>
+    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="44"/>
+    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="44"/>
+    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="44"/>
+    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="44"/>
+    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="44"/>
+    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="44"/>
+    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="44"/>
+    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="44"/>
+    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="44"/>
+    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="44"/>
+    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="44"/>
+    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="44"/>
+    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="44"/>
+    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="44"/>
+    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="44"/>
+    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="44"/>
+    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="44"/>
+    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="44"/>
+    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="44"/>
+    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="102" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="111" t="str">
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="163" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="159">
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="161"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="163" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="159">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="161"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="159" t="str">
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="161"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5816,7 +5818,7 @@
       <c r="AH31" s="52"/>
       <c r="AI31" s="53"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="55"/>
       <c r="C32" s="37"/>
@@ -5890,7 +5892,7 @@
       <c r="AH33" s="52"/>
       <c r="AI33" s="53"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="55"/>
       <c r="C34" s="37"/>
@@ -6234,6 +6236,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6243,14 +6253,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6271,169 +6273,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="8"/>
+    <col min="1" max="16384" width="4.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="190" t="str">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="93" t="s">
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="159">
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="161"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="93" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="159">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="161"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="159" t="str">
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="161"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6489,386 +6491,386 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="169" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="169" t="s">
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="169" t="s">
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="171"/>
-      <c r="T7" s="169" t="s">
+      <c r="S7" s="192"/>
+      <c r="T7" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="169" t="s">
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="169" t="s">
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="195"/>
+      <c r="AF7" s="195"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="169" t="s">
+      <c r="AI7" s="195"/>
+      <c r="AJ7" s="192"/>
+      <c r="AK7" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="170"/>
-      <c r="AN7" s="170"/>
-      <c r="AO7" s="170"/>
-      <c r="AP7" s="171"/>
+      <c r="AL7" s="195"/>
+      <c r="AM7" s="195"/>
+      <c r="AN7" s="195"/>
+      <c r="AO7" s="195"/>
+      <c r="AP7" s="192"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="176"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="174"/>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="173"/>
-      <c r="AM8" s="173"/>
-      <c r="AN8" s="173"/>
-      <c r="AO8" s="173"/>
-      <c r="AP8" s="174"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="196"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="196"/>
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="196"/>
+      <c r="AJ8" s="194"/>
+      <c r="AK8" s="193"/>
+      <c r="AL8" s="196"/>
+      <c r="AM8" s="196"/>
+      <c r="AN8" s="196"/>
+      <c r="AO8" s="196"/>
+      <c r="AP8" s="194"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="178"/>
-      <c r="F9" s="180" t="s">
+      <c r="E9" s="208"/>
+      <c r="F9" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="180" t="s">
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="165" t="s">
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="208"/>
+      <c r="R9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="166"/>
-      <c r="T9" s="168" t="s">
+      <c r="S9" s="171"/>
+      <c r="T9" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="165" t="s">
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="168" t="s">
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="165" t="s">
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="167"/>
-      <c r="AP9" s="166"/>
+      <c r="AL9" s="173"/>
+      <c r="AM9" s="173"/>
+      <c r="AN9" s="173"/>
+      <c r="AO9" s="173"/>
+      <c r="AP9" s="171"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="168" t="s">
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="166"/>
-      <c r="T10" s="168" t="s">
+      <c r="S10" s="171"/>
+      <c r="T10" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="165" t="s">
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="168" t="s">
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="166"/>
-      <c r="AK10" s="168"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="167"/>
-      <c r="AO10" s="167"/>
-      <c r="AP10" s="166"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="173"/>
+      <c r="AM10" s="173"/>
+      <c r="AN10" s="173"/>
+      <c r="AO10" s="173"/>
+      <c r="AP10" s="171"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
         <f t="shared" ref="C11:C13" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="168" t="s">
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="166"/>
-      <c r="T11" s="168" t="s">
+      <c r="S11" s="171"/>
+      <c r="T11" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="168" t="s">
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="168" t="s">
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="171"/>
+      <c r="AH11" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="167"/>
-      <c r="AJ11" s="166"/>
-      <c r="AK11" s="168"/>
-      <c r="AL11" s="167"/>
-      <c r="AM11" s="167"/>
-      <c r="AN11" s="167"/>
-      <c r="AO11" s="167"/>
-      <c r="AP11" s="166"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="171"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="173"/>
+      <c r="AM11" s="173"/>
+      <c r="AN11" s="173"/>
+      <c r="AO11" s="173"/>
+      <c r="AP11" s="171"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="168" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="166"/>
-      <c r="T12" s="168" t="s">
+      <c r="S12" s="171"/>
+      <c r="T12" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="167"/>
-      <c r="V12" s="167"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="167"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="168" t="s">
+      <c r="U12" s="173"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="167"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="167"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="168" t="s">
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="167"/>
-      <c r="AM12" s="167"/>
-      <c r="AN12" s="167"/>
-      <c r="AO12" s="167"/>
-      <c r="AP12" s="166"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="171"/>
+      <c r="AK12" s="172"/>
+      <c r="AL12" s="173"/>
+      <c r="AM12" s="173"/>
+      <c r="AN12" s="173"/>
+      <c r="AO12" s="173"/>
+      <c r="AP12" s="171"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="177" t="s">
+      <c r="E13" s="208"/>
+      <c r="F13" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="177" t="s">
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="168" t="s">
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="207"/>
+      <c r="Q13" s="208"/>
+      <c r="R13" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="166"/>
-      <c r="T13" s="168" t="s">
+      <c r="S13" s="171"/>
+      <c r="T13" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="168" t="s">
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="168" t="s">
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="165" t="s">
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="171"/>
+      <c r="AK13" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="167"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="166"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="173"/>
+      <c r="AN13" s="173"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="171"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
@@ -6889,39 +6891,39 @@
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="79"/>
-      <c r="R14" s="165" t="s">
+      <c r="R14" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="166"/>
-      <c r="T14" s="165" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="167"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="165" t="s">
+      <c r="S14" s="171"/>
+      <c r="T14" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="173"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="166"/>
-      <c r="AH14" s="168" t="s">
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="166"/>
-      <c r="AK14" s="165"/>
-      <c r="AL14" s="167"/>
-      <c r="AM14" s="167"/>
-      <c r="AN14" s="167"/>
-      <c r="AO14" s="167"/>
-      <c r="AP14" s="166"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="170"/>
+      <c r="AL14" s="173"/>
+      <c r="AM14" s="173"/>
+      <c r="AN14" s="173"/>
+      <c r="AO14" s="173"/>
+      <c r="AP14" s="171"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="84">
@@ -6942,100 +6944,100 @@
       <c r="O15" s="83"/>
       <c r="P15" s="83"/>
       <c r="Q15" s="82"/>
-      <c r="R15" s="207" t="s">
+      <c r="R15" s="165" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="167"/>
+      <c r="T15" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="S15" s="209"/>
-      <c r="T15" s="207" t="s">
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="167"/>
+      <c r="Z15" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="166"/>
+      <c r="AG15" s="167"/>
+      <c r="AH15" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="U15" s="208"/>
-      <c r="V15" s="208"/>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="207" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="208"/>
-      <c r="AE15" s="208"/>
-      <c r="AF15" s="208"/>
-      <c r="AG15" s="209"/>
-      <c r="AH15" s="207" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI15" s="210"/>
-      <c r="AJ15" s="211"/>
-      <c r="AK15" s="207" t="s">
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="169"/>
+      <c r="AK15" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="AL15" s="208"/>
-      <c r="AM15" s="208"/>
-      <c r="AN15" s="208"/>
-      <c r="AO15" s="208"/>
-      <c r="AP15" s="209"/>
+      <c r="AL15" s="166"/>
+      <c r="AM15" s="166"/>
+      <c r="AN15" s="166"/>
+      <c r="AO15" s="166"/>
+      <c r="AP15" s="167"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="77">
         <f>C15+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="203" t="s">
+      <c r="D16" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="204"/>
-      <c r="F16" s="206" t="s">
+      <c r="E16" s="175"/>
+      <c r="F16" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="206" t="s">
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="165" t="s">
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="166"/>
-      <c r="T16" s="168" t="s">
+      <c r="S16" s="171"/>
+      <c r="T16" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="U16" s="167"/>
-      <c r="V16" s="167"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="167"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="165" t="s">
+      <c r="U16" s="173"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="167"/>
-      <c r="AB16" s="167"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="167"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="168" t="s">
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="167"/>
-      <c r="AM16" s="167"/>
-      <c r="AN16" s="167"/>
-      <c r="AO16" s="167"/>
-      <c r="AP16" s="166"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="171"/>
+      <c r="AK16" s="172"/>
+      <c r="AL16" s="173"/>
+      <c r="AM16" s="173"/>
+      <c r="AN16" s="173"/>
+      <c r="AO16" s="173"/>
+      <c r="AP16" s="171"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7655,16 +7657,64 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7681,68 +7731,20 @@
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465C76E-CBD1-4B7E-9853-EAC67DD64FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C01EF-F024-4CA9-93AE-7981B44C0BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -603,6 +601,13 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>プロジェクト照会</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>WA10202 プロジェクト照会 追加</t>
     <rPh sb="14" eb="16">
       <t>ショウカイ</t>
@@ -662,13 +667,6 @@
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロジェクト検索</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1270,105 +1268,6 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1485,6 +1384,114 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1494,14 +1501,131 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1517,132 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1697,8 +1695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2384,44 +2382,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="11"/>
-    <col min="10" max="10" width="16.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="11"/>
+    <col min="1" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -2429,12 +2427,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2445,42 +2443,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="15"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="15"/>
       <c r="H33" s="15"/>
       <c r="J33" s="18"/>
@@ -2490,7 +2488,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="15"/>
       <c r="H34" s="15"/>
       <c r="J34" s="31"/>
@@ -2503,522 +2501,522 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="29"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3035,61 +3033,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="153" t="s">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="119">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="86">
         <v>43404</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3097,53 +3095,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3151,45 +3149,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3226,1062 +3224,1218 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="141">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
         <v>43404</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="151"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="126">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="127"/>
+      <c r="D9" s="128">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="99" t="s">
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="B10" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="128">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="100" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="99" t="s">
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="99" t="s">
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="136"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="138"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="136"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="136"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="138"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="136"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="136"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="136"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="138"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="136"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="136"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="138"/>
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="135"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="138"/>
+      <c r="AA32" s="138"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="136"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="155"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="136"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4305,162 +4459,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4481,299 +4479,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="44"/>
-    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="44"/>
-    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="44"/>
-    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="44"/>
-    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="44"/>
-    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="44"/>
-    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="44"/>
-    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="44"/>
-    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="44"/>
-    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="44"/>
-    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="44"/>
-    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="44"/>
-    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="44"/>
-    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="44"/>
-    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="44"/>
-    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="44"/>
-    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="44"/>
-    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="44"/>
-    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="44"/>
-    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="44"/>
-    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="44"/>
-    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="44"/>
-    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="44"/>
-    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="44"/>
-    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="44"/>
-    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="44"/>
-    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="44"/>
-    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="44"/>
-    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="44"/>
-    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="44"/>
-    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="44"/>
-    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="44"/>
-    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="44"/>
-    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="44"/>
-    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="44"/>
-    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="44"/>
-    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="44"/>
-    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="44"/>
-    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="44"/>
-    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="44"/>
-    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="44"/>
-    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="44"/>
-    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="44"/>
-    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="44"/>
-    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="44"/>
-    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="44"/>
-    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="44"/>
-    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="44"/>
-    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="44"/>
-    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="44"/>
-    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="44"/>
-    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="44"/>
-    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="44"/>
-    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="44"/>
-    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="44"/>
-    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="44"/>
-    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="44"/>
-    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="44"/>
-    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="44"/>
-    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="44"/>
-    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="44"/>
-    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="44"/>
-    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="44"/>
-    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="44"/>
+    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="44"/>
+    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="44"/>
+    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="44"/>
+    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="44"/>
+    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="44"/>
+    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="44"/>
+    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="44"/>
+    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="44"/>
+    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="44"/>
+    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="44"/>
+    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="44"/>
+    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="44"/>
+    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="44"/>
+    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="44"/>
+    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="44"/>
+    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="44"/>
+    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="44"/>
+    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="44"/>
+    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="44"/>
+    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="44"/>
+    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="44"/>
+    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="44"/>
+    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="44"/>
+    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="44"/>
+    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="44"/>
+    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="44"/>
+    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="44"/>
+    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="44"/>
+    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="44"/>
+    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="44"/>
+    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="44"/>
+    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="44"/>
+    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="44"/>
+    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="44"/>
+    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="44"/>
+    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="44"/>
+    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="44"/>
+    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="44"/>
+    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="44"/>
+    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="44"/>
+    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="44"/>
+    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="44"/>
+    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="44"/>
+    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="44"/>
+    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="44"/>
+    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="44"/>
+    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="44"/>
+    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="44"/>
+    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="44"/>
+    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="44"/>
+    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="44"/>
+    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="44"/>
+    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="44"/>
+    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="44"/>
+    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="44"/>
+    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="44"/>
+    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="44"/>
+    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="44"/>
+    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="44"/>
+    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="44"/>
+    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="44"/>
+    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="44"/>
+    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="44"/>
+    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5818,7 +5816,7 @@
       <c r="AH31" s="52"/>
       <c r="AI31" s="53"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="55"/>
       <c r="C32" s="37"/>
@@ -5892,7 +5890,7 @@
       <c r="AH33" s="52"/>
       <c r="AI33" s="53"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="55"/>
       <c r="C34" s="37"/>
@@ -6236,14 +6234,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6253,6 +6243,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6273,169 +6271,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="8"/>
+    <col min="1" max="16384" width="4.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="182" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="161"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="159">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="161"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="161"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6491,386 +6489,386 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="191" t="s">
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="191" t="s">
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="192"/>
-      <c r="T7" s="191" t="s">
+      <c r="S7" s="171"/>
+      <c r="T7" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="191" t="s">
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="195"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="191" t="s">
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="195"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="191" t="s">
+      <c r="AI7" s="170"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="195"/>
-      <c r="AM7" s="195"/>
-      <c r="AN7" s="195"/>
-      <c r="AO7" s="195"/>
-      <c r="AP7" s="192"/>
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="170"/>
+      <c r="AP7" s="171"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="210"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="196"/>
-      <c r="AG8" s="194"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="196"/>
-      <c r="AJ8" s="194"/>
-      <c r="AK8" s="193"/>
-      <c r="AL8" s="196"/>
-      <c r="AM8" s="196"/>
-      <c r="AN8" s="196"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="194"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="172"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="174"/>
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="173"/>
+      <c r="AM8" s="173"/>
+      <c r="AN8" s="173"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="174"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="206" t="s">
+      <c r="E9" s="178"/>
+      <c r="F9" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="206" t="s">
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="170" t="s">
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="171"/>
-      <c r="T9" s="172" t="s">
+      <c r="S9" s="166"/>
+      <c r="T9" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="170" t="s">
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="172" t="s">
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="170" t="s">
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="166"/>
+      <c r="AK9" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="173"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="173"/>
-      <c r="AO9" s="173"/>
-      <c r="AP9" s="171"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="166"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="172" t="s">
+      <c r="D10" s="199"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="171"/>
-      <c r="T10" s="172" t="s">
+      <c r="S10" s="166"/>
+      <c r="T10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="170" t="s">
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="172" t="s">
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="173"/>
-      <c r="AM10" s="173"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="171"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="167"/>
+      <c r="AP10" s="166"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
         <f t="shared" ref="C11:C13" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="172" t="s">
+      <c r="D11" s="199"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="171"/>
-      <c r="T11" s="172" t="s">
+      <c r="S11" s="166"/>
+      <c r="T11" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="172" t="s">
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="172" t="s">
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="172"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="171"/>
+      <c r="AI11" s="167"/>
+      <c r="AJ11" s="166"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="167"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="167"/>
+      <c r="AP11" s="166"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="172" t="s">
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="171"/>
-      <c r="T12" s="172" t="s">
+      <c r="S12" s="166"/>
+      <c r="T12" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="172" t="s">
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="167"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="172" t="s">
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="167"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="167"/>
+      <c r="AF12" s="167"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="171"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="173"/>
-      <c r="AN12" s="173"/>
-      <c r="AO12" s="173"/>
-      <c r="AP12" s="171"/>
+      <c r="AI12" s="167"/>
+      <c r="AJ12" s="166"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="167"/>
+      <c r="AM12" s="167"/>
+      <c r="AN12" s="167"/>
+      <c r="AO12" s="167"/>
+      <c r="AP12" s="166"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="211" t="s">
+      <c r="D13" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="211" t="s">
+      <c r="E13" s="178"/>
+      <c r="F13" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="211" t="s">
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="172" t="s">
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="171"/>
-      <c r="T13" s="172" t="s">
+      <c r="S13" s="166"/>
+      <c r="T13" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="172" t="s">
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="172" t="s">
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="171"/>
-      <c r="AK13" s="170" t="s">
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="173"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="171"/>
+      <c r="AL13" s="167"/>
+      <c r="AM13" s="167"/>
+      <c r="AN13" s="167"/>
+      <c r="AO13" s="167"/>
+      <c r="AP13" s="166"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
@@ -6891,39 +6889,39 @@
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="79"/>
-      <c r="R14" s="170" t="s">
+      <c r="R14" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="171"/>
-      <c r="T14" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="170" t="s">
+      <c r="S14" s="166"/>
+      <c r="T14" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="172" t="s">
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="173"/>
-      <c r="AM14" s="173"/>
-      <c r="AN14" s="173"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="171"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="166"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="167"/>
+      <c r="AO14" s="167"/>
+      <c r="AP14" s="166"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="84">
@@ -6944,100 +6942,100 @@
       <c r="O15" s="83"/>
       <c r="P15" s="83"/>
       <c r="Q15" s="82"/>
-      <c r="R15" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="167"/>
-      <c r="T15" s="165" t="s">
+      <c r="R15" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="165" t="s">
+      <c r="S15" s="209"/>
+      <c r="T15" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="165" t="s">
+      <c r="U15" s="208"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="209"/>
+      <c r="Z15" s="207" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="209"/>
+      <c r="AH15" s="207" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="210"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="166"/>
-      <c r="AN15" s="166"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="167"/>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
+      <c r="AP15" s="209"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="77">
         <f>C15+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176" t="s">
+      <c r="E16" s="204"/>
+      <c r="F16" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176" t="s">
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="170" t="s">
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="171"/>
-      <c r="T16" s="172" t="s">
+      <c r="S16" s="166"/>
+      <c r="T16" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="170" t="s">
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="172" t="s">
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="173"/>
-      <c r="AP16" s="171"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="167"/>
+      <c r="AM16" s="167"/>
+      <c r="AN16" s="167"/>
+      <c r="AO16" s="167"/>
+      <c r="AP16" s="166"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7657,11 +7655,69 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z13:AG13"/>
@@ -7678,73 +7734,15 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465C76E-CBD1-4B7E-9853-EAC67DD64FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB769D2A-FA48-4F89-8322-5C7018C56876}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>PJ名</t>
   </si>
@@ -277,9 +275,6 @@
     <t>ログアウト</t>
   </si>
   <si>
-    <t>WA10103</t>
-  </si>
-  <si>
     <t>TOPメニュー</t>
   </si>
   <si>
@@ -297,9 +292,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>WA10104</t>
   </si>
   <si>
     <t>汎用エラー</t>
@@ -547,16 +539,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。一覧のリンクを押下するとプロジェクトのデータ1件の詳細画面を表示する。</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
@@ -669,6 +651,98 @@
       <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトで共通的に使用する機能を提供する。</t>
+    <rPh sb="7" eb="10">
+      <t>キョウツウテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10302</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>エラー内容単位にメッセージを変更する。</t>
+    <rPh sb="3" eb="7">
+      <t>ナイヨウタンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通に分類見直し
+・未実装機能を網掛け</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>アミカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
@@ -816,7 +890,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +906,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1147,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1264,110 +1344,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1485,6 +1463,114 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1494,14 +1580,128 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1518,132 +1718,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1697,8 +1799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2056,6 +2158,128 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>89388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B8078B-8B12-4421-983A-C65C19BE4AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12543692" y="4989634"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2384,103 +2608,103 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="11"/>
-    <col min="10" max="10" width="16.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="11"/>
+    <col min="1" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="85">
+      <c r="I25" s="84">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-    </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44796</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="15"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="15"/>
       <c r="H33" s="15"/>
       <c r="J33" s="18"/>
@@ -2490,7 +2714,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="15"/>
       <c r="H34" s="15"/>
       <c r="J34" s="31"/>
@@ -2503,522 +2727,522 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="29"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3035,61 +3259,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="153" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="119">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="85">
         <v>43404</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="87"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3097,53 +3321,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="126" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="85">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3151,45 +3375,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3226,1062 +3450,1232 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="140">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="141"/>
+      <c r="D8" s="142">
         <v>43404</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="99" t="s">
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="B10" s="156" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="127">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="100" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
-    </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
+    </row>
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="127">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="156" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="154"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4305,162 +4699,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4481,299 +4719,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="44"/>
-    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="44"/>
-    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="44"/>
-    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="44"/>
-    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="44"/>
-    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="44"/>
-    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="44"/>
-    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="44"/>
-    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="44"/>
-    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="44"/>
-    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="44"/>
-    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="44"/>
-    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="44"/>
-    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="44"/>
-    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="44"/>
-    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="44"/>
-    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="44"/>
-    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="44"/>
-    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="44"/>
-    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="44"/>
-    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="44"/>
-    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="44"/>
-    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="44"/>
-    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="44"/>
-    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="44"/>
-    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="44"/>
-    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="44"/>
-    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="44"/>
-    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="44"/>
-    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="44"/>
-    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="44"/>
-    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="44"/>
-    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="44"/>
-    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="44"/>
-    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="44"/>
-    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="44"/>
-    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="44"/>
-    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="44"/>
-    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="44"/>
-    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="44"/>
-    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="44"/>
-    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="44"/>
-    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="44"/>
-    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="44"/>
-    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="44"/>
-    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="44"/>
-    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="44"/>
-    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="44"/>
-    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="44"/>
-    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="44"/>
-    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="44"/>
-    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="44"/>
-    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="44"/>
-    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="44"/>
-    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="44"/>
-    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="44"/>
-    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="44"/>
-    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="44"/>
-    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="44"/>
-    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="44"/>
-    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="44"/>
-    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="44"/>
-    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="44"/>
-    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="44"/>
+    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="44"/>
+    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="44"/>
+    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="44"/>
+    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="44"/>
+    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="44"/>
+    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="44"/>
+    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="44"/>
+    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="44"/>
+    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="44"/>
+    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="44"/>
+    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="44"/>
+    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="44"/>
+    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="44"/>
+    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="44"/>
+    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="44"/>
+    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="44"/>
+    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="44"/>
+    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="44"/>
+    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="44"/>
+    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="44"/>
+    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="44"/>
+    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="44"/>
+    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="44"/>
+    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="44"/>
+    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="44"/>
+    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="44"/>
+    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="44"/>
+    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="44"/>
+    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="44"/>
+    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="44"/>
+    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="44"/>
+    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="44"/>
+    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="44"/>
+    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="44"/>
+    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="44"/>
+    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="44"/>
+    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="44"/>
+    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="44"/>
+    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="44"/>
+    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="44"/>
+    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="44"/>
+    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="44"/>
+    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="44"/>
+    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="44"/>
+    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="44"/>
+    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="44"/>
+    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="44"/>
+    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="44"/>
+    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="44"/>
+    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="44"/>
+    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="44"/>
+    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="44"/>
+    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="44"/>
+    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="44"/>
+    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="44"/>
+    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="44"/>
+    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="44"/>
+    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="44"/>
+    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="44"/>
+    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="44"/>
+    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="44"/>
+    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="44"/>
+    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="44"/>
+    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5818,7 +6056,7 @@
       <c r="AH31" s="52"/>
       <c r="AI31" s="53"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="55"/>
       <c r="C32" s="37"/>
@@ -5892,7 +6130,7 @@
       <c r="AH33" s="52"/>
       <c r="AI33" s="53"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="55"/>
       <c r="C34" s="37"/>
@@ -6236,14 +6474,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6253,6 +6483,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6273,169 +6511,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="8"/>
+    <col min="1" max="16384" width="4.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="182" t="str">
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6485,479 +6723,487 @@
       <c r="AP4" s="7"/>
     </row>
     <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="219" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="191" t="s">
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="191" t="s">
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="192"/>
-      <c r="T7" s="191" t="s">
+      <c r="S7" s="170"/>
+      <c r="T7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="191" t="s">
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="195"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="191" t="s">
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="170"/>
+      <c r="AH7" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="195"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="191" t="s">
+      <c r="AI7" s="169"/>
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="195"/>
-      <c r="AM7" s="195"/>
-      <c r="AN7" s="195"/>
-      <c r="AO7" s="195"/>
-      <c r="AP7" s="192"/>
+      <c r="AL7" s="169"/>
+      <c r="AM7" s="169"/>
+      <c r="AN7" s="169"/>
+      <c r="AO7" s="169"/>
+      <c r="AP7" s="170"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="210"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="196"/>
-      <c r="AG8" s="194"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="196"/>
-      <c r="AJ8" s="194"/>
-      <c r="AK8" s="193"/>
-      <c r="AL8" s="196"/>
-      <c r="AM8" s="196"/>
-      <c r="AN8" s="196"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="194"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="172"/>
+      <c r="AM8" s="172"/>
+      <c r="AN8" s="172"/>
+      <c r="AO8" s="172"/>
+      <c r="AP8" s="173"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="206" t="s">
+      <c r="E9" s="177"/>
+      <c r="F9" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="206" t="s">
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="170" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="171"/>
-      <c r="T9" s="172" t="s">
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="164" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="165"/>
+      <c r="T9" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="172" t="s">
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="164" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="170" t="s">
+      <c r="AI9" s="166"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="173"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="173"/>
-      <c r="AO9" s="173"/>
-      <c r="AP9" s="171"/>
+      <c r="AL9" s="166"/>
+      <c r="AM9" s="166"/>
+      <c r="AN9" s="166"/>
+      <c r="AO9" s="166"/>
+      <c r="AP9" s="165"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="172" t="s">
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="171"/>
-      <c r="T10" s="172" t="s">
+      <c r="S10" s="165"/>
+      <c r="T10" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="172" t="s">
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="164" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="173"/>
-      <c r="AM10" s="173"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="171"/>
-    </row>
-    <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI10" s="166"/>
+      <c r="AJ10" s="165"/>
+      <c r="AK10" s="167"/>
+      <c r="AL10" s="166"/>
+      <c r="AM10" s="166"/>
+      <c r="AN10" s="166"/>
+      <c r="AO10" s="166"/>
+      <c r="AP10" s="165"/>
+    </row>
+    <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
-        <f t="shared" ref="C11:C13" si="0">C10+1</f>
+        <f t="shared" ref="C11:C16" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="171"/>
-      <c r="T11" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="172" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="172" t="s">
+      <c r="D11" s="176" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="176" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="165"/>
+      <c r="T11" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="172"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="171"/>
-    </row>
-    <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI11" s="166"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="164" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL11" s="166"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="166"/>
+      <c r="AO11" s="166"/>
+      <c r="AP11" s="165"/>
+    </row>
+    <row r="12" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="171"/>
-      <c r="T12" s="172" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="172" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="172" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="165"/>
+      <c r="T12" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA12" s="166"/>
+      <c r="AB12" s="166"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="166"/>
+      <c r="AF12" s="166"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="171"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="173"/>
-      <c r="AN12" s="173"/>
-      <c r="AO12" s="173"/>
-      <c r="AP12" s="171"/>
-    </row>
-    <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI12" s="166"/>
+      <c r="AJ12" s="165"/>
+      <c r="AK12" s="164"/>
+      <c r="AL12" s="166"/>
+      <c r="AM12" s="166"/>
+      <c r="AN12" s="166"/>
+      <c r="AO12" s="166"/>
+      <c r="AP12" s="165"/>
+    </row>
+    <row r="13" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="171"/>
-      <c r="T13" s="172" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" s="207"/>
+      <c r="T13" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="206"/>
+      <c r="V13" s="206"/>
+      <c r="W13" s="206"/>
+      <c r="X13" s="206"/>
+      <c r="Y13" s="207"/>
+      <c r="Z13" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA13" s="206"/>
+      <c r="AB13" s="206"/>
+      <c r="AC13" s="206"/>
+      <c r="AD13" s="206"/>
+      <c r="AE13" s="206"/>
+      <c r="AF13" s="206"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="205" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="208"/>
+      <c r="AJ13" s="209"/>
+      <c r="AK13" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="172" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="172" t="s">
+      <c r="AL13" s="206"/>
+      <c r="AM13" s="206"/>
+      <c r="AN13" s="206"/>
+      <c r="AO13" s="206"/>
+      <c r="AP13" s="207"/>
+    </row>
+    <row r="14" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="77">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="200" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="199"/>
+      <c r="R14" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" s="165"/>
+      <c r="T14" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="166"/>
+      <c r="AC14" s="166"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="166"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="171"/>
-      <c r="AK13" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="173"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="171"/>
-    </row>
-    <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="77">
-        <f>C13+1</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="171"/>
-      <c r="T14" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="173"/>
-      <c r="AM14" s="173"/>
-      <c r="AN14" s="173"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="171"/>
-    </row>
-    <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="84">
-        <f>C14+1</f>
+      <c r="AI14" s="166"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="167"/>
+      <c r="AL14" s="166"/>
+      <c r="AM14" s="166"/>
+      <c r="AN14" s="166"/>
+      <c r="AO14" s="166"/>
+      <c r="AP14" s="165"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="77">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="167"/>
-      <c r="T15" s="165" t="s">
-        <v>76</v>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="204"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="165"/>
+      <c r="T15" s="167" t="s">
+        <v>39</v>
       </c>
       <c r="U15" s="166"/>
       <c r="V15" s="166"/>
       <c r="W15" s="166"/>
       <c r="X15" s="166"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="165" t="s">
-        <v>80</v>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="167" t="s">
+        <v>40</v>
       </c>
       <c r="AA15" s="166"/>
       <c r="AB15" s="166"/>
@@ -6965,79 +7211,79 @@
       <c r="AD15" s="166"/>
       <c r="AE15" s="166"/>
       <c r="AF15" s="166"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="165" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="165" t="s">
-        <v>49</v>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="166"/>
+      <c r="AJ15" s="165"/>
+      <c r="AK15" s="164" t="s">
+        <v>84</v>
       </c>
       <c r="AL15" s="166"/>
       <c r="AM15" s="166"/>
       <c r="AN15" s="166"/>
       <c r="AO15" s="166"/>
-      <c r="AP15" s="167"/>
+      <c r="AP15" s="165"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="77">
-        <f>C15+1</f>
+      <c r="C16" s="210">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="212"/>
+      <c r="F16" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="213" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="214"/>
+      <c r="Q16" s="212"/>
+      <c r="R16" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="216"/>
+      <c r="T16" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176" t="s">
+      <c r="U16" s="218"/>
+      <c r="V16" s="218"/>
+      <c r="W16" s="218"/>
+      <c r="X16" s="218"/>
+      <c r="Y16" s="216"/>
+      <c r="Z16" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="170" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="171"/>
-      <c r="T16" s="172" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="172" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="173"/>
-      <c r="AP16" s="171"/>
+      <c r="AA16" s="218"/>
+      <c r="AB16" s="218"/>
+      <c r="AC16" s="218"/>
+      <c r="AD16" s="218"/>
+      <c r="AE16" s="218"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="218"/>
+      <c r="AJ16" s="216"/>
+      <c r="AK16" s="217"/>
+      <c r="AL16" s="218"/>
+      <c r="AM16" s="218"/>
+      <c r="AN16" s="218"/>
+      <c r="AO16" s="218"/>
+      <c r="AP16" s="216"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7657,27 +7903,53 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
     <mergeCell ref="Z14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
     <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="AK13:AP13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7694,59 +7966,34 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z11:AG11"/>
     <mergeCell ref="AH11:AJ11"/>
     <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:Y12"/>
     <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AK12:AP12"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB769D2A-FA48-4F89-8322-5C7018C56876}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6FCCD-BD00-4308-9A76-26B3035F4F2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>PJ名</t>
   </si>
@@ -257,18 +257,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザには、以下２つのロールが存在する。
-・マネージャー
-・メンバー</t>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>WA10102</t>
   </si>
   <si>
@@ -374,16 +362,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>マネージャーのみが使用可能。</t>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -698,32 +676,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>・TOPメニュー、汎用エラーを共通に分類見直し
-・未実装機能を網掛け</t>
-    <rPh sb="9" eb="11">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ミナオ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>アミカ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>1.3版</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -743,6 +695,94 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通に分類見直し
+・更新処理の利用権限について要件に合わせて尾行を修正（未実装機能を吹き出しで追記）</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コウシンショリ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>リヨウケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザには、以下２つのロールが存在する。
+・プロジェクトマネージャー
+・メンバー</t>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャーのみが使用可能。</t>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規登録はプロジェクトマネージャーのみが使用可能だが、メンバーは自身が担当するプロジェクトのみ更新機能を使用可能。</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>コウシンキノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -911,7 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,6 +1384,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,15 +1594,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1580,42 +1624,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1682,6 +1726,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1694,6 +1747,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1703,49 +1786,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2162,16 +2202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102576</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>454269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>89388</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>48357</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>378070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2188,8 +2228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12543692" y="4989634"/>
-          <a:ext cx="1466850" cy="685800"/>
+          <a:off x="12492403" y="3077307"/>
+          <a:ext cx="1466850" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2270,7 +2310,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>月版では未実装</a:t>
+            <a:t>月版では権限による更新制御は未実装</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2650,7 +2690,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2662,12 +2702,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="84">
+      <c r="I25" s="86">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
@@ -3256,7 +3296,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="Q16" sqref="Q16:AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3265,55 +3305,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="85">
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="87">
         <v>43404</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="87"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3321,53 +3361,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="100" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="85">
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="87">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="87"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3375,45 +3415,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3450,1070 +3490,1070 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="88" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="91" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="88" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="88" t="s">
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="89"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="91"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="142">
         <v>1</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142">
+      <c r="C8" s="143"/>
+      <c r="D8" s="144">
         <v>43404</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145" t="s">
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148" t="s">
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="152"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="127">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127">
+      <c r="C9" s="128"/>
+      <c r="D9" s="129">
         <v>43804</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="135"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="127">
+        <v>73</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129">
         <v>43895</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="135"/>
-    </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
+    </row>
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>2</v>
       </c>
       <c r="B11" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="127">
-        <v>44796</v>
-      </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="156" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="135"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="133"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="135"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="135"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="135"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="134"/>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="135"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="135"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="135"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="135"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="135"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="134"/>
-      <c r="AI22" s="135"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="141"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="135"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="141"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="135"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="134"/>
-      <c r="AI25" s="135"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="139"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="135"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="141"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="135"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="141"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="135"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="139"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="135"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="141"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="139"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="135"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="141"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="141"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="135"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -4855,163 +4895,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="162" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="124" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="162" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124" t="str">
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6508,7 +6548,7 @@
   <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6517,163 +6557,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="161" t="str">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="str">
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="124" t="str">
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="161" t="str">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="161" t="str">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="124" t="str">
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6723,286 +6763,286 @@
       <c r="AP4" s="7"/>
     </row>
     <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="168" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="168" t="s">
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="168" t="s">
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="170"/>
-      <c r="T7" s="168" t="s">
+      <c r="S7" s="168"/>
+      <c r="T7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="168" t="s">
+      <c r="U7" s="167"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="169"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="168" t="s">
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="169"/>
-      <c r="AJ7" s="170"/>
-      <c r="AK7" s="168" t="s">
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="168"/>
+      <c r="AK7" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="169"/>
-      <c r="AM7" s="169"/>
-      <c r="AN7" s="169"/>
-      <c r="AO7" s="169"/>
-      <c r="AP7" s="170"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="167"/>
+      <c r="AP7" s="168"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="175"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="172"/>
-      <c r="AM8" s="172"/>
-      <c r="AN8" s="172"/>
-      <c r="AO8" s="172"/>
-      <c r="AP8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="171"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="D9" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="177"/>
-      <c r="F9" s="179" t="s">
+      <c r="E9" s="179"/>
+      <c r="F9" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="179" t="s">
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="164" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="165"/>
-      <c r="T9" s="167" t="s">
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="176"/>
+      <c r="T9" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="164" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="166"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="167" t="s">
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="176"/>
+      <c r="Z9" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="166"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="164" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL9" s="166"/>
-      <c r="AM9" s="166"/>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="166"/>
-      <c r="AP9" s="165"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="176"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="167" t="s">
+      <c r="D10" s="203"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="176"/>
+      <c r="T10" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="165"/>
-      <c r="T10" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="164" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="167" t="s">
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="166"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="167"/>
-      <c r="AL10" s="166"/>
-      <c r="AM10" s="166"/>
-      <c r="AN10" s="166"/>
-      <c r="AO10" s="166"/>
-      <c r="AP10" s="165"/>
+      <c r="AI10" s="175"/>
+      <c r="AJ10" s="176"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="175"/>
+      <c r="AM10" s="175"/>
+      <c r="AN10" s="175"/>
+      <c r="AO10" s="175"/>
+      <c r="AP10" s="176"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
         <f t="shared" ref="C11:C16" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="179"/>
+      <c r="F11" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="176" t="s">
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="176" t="s">
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="167" t="s">
+      <c r="S11" s="176"/>
+      <c r="T11" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="165"/>
-      <c r="T11" s="167" t="s">
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="167" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="167" t="s">
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="166"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL11" s="166"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="166"/>
-      <c r="AO11" s="166"/>
-      <c r="AP11" s="165"/>
+      <c r="AI11" s="175"/>
+      <c r="AJ11" s="176"/>
+      <c r="AK11" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="175"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="176"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
@@ -7023,39 +7063,39 @@
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="79"/>
-      <c r="R12" s="164" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="165"/>
-      <c r="T12" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="164" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="166"/>
-      <c r="AF12" s="166"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="167" t="s">
+      <c r="R12" s="177" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="176"/>
+      <c r="T12" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="177" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="165"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="165"/>
+      <c r="AI12" s="175"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="175"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="175"/>
+      <c r="AP12" s="176"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
@@ -7076,214 +7116,214 @@
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="82"/>
-      <c r="R13" s="205" t="s">
+      <c r="R13" s="212" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="214"/>
+      <c r="T13" s="212" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="213"/>
+      <c r="X13" s="213"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="212" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="213"/>
+      <c r="AB13" s="213"/>
+      <c r="AC13" s="213"/>
+      <c r="AD13" s="213"/>
+      <c r="AE13" s="213"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="207"/>
-      <c r="T13" s="205" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="206"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="207"/>
-      <c r="Z13" s="205" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="206"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="206"/>
-      <c r="AG13" s="207"/>
-      <c r="AH13" s="205" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI13" s="208"/>
-      <c r="AJ13" s="209"/>
-      <c r="AK13" s="205" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL13" s="206"/>
-      <c r="AM13" s="206"/>
-      <c r="AN13" s="206"/>
-      <c r="AO13" s="206"/>
-      <c r="AP13" s="207"/>
+      <c r="AI13" s="215"/>
+      <c r="AJ13" s="216"/>
+      <c r="AK13" s="212" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL13" s="213"/>
+      <c r="AM13" s="213"/>
+      <c r="AN13" s="213"/>
+      <c r="AO13" s="213"/>
+      <c r="AP13" s="214"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="204"/>
+      <c r="F14" s="205" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200" t="s">
+      <c r="L14" s="206"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="206"/>
+      <c r="O14" s="206"/>
+      <c r="P14" s="206"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="S14" s="165"/>
-      <c r="T14" s="167" t="s">
+      <c r="S14" s="176"/>
+      <c r="T14" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="166"/>
-      <c r="AF14" s="166"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="167" t="s">
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="166"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="166"/>
-      <c r="AM14" s="166"/>
-      <c r="AN14" s="166"/>
-      <c r="AO14" s="166"/>
-      <c r="AP14" s="165"/>
+      <c r="AI14" s="175"/>
+      <c r="AJ14" s="176"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="175"/>
+      <c r="AM14" s="175"/>
+      <c r="AN14" s="175"/>
+      <c r="AO14" s="175"/>
+      <c r="AP14" s="176"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="77">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="164" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="165"/>
-      <c r="T15" s="167" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="176"/>
+      <c r="T15" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="167" t="s">
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="165"/>
-      <c r="AK15" s="164" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="166"/>
-      <c r="AN15" s="166"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="165"/>
+      <c r="AI15" s="175"/>
+      <c r="AJ15" s="176"/>
+      <c r="AK15" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="175"/>
+      <c r="AM15" s="175"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="175"/>
+      <c r="AP15" s="176"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="210">
+      <c r="C16" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="D16" s="208" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="207" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="202"/>
+      <c r="T16" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="212"/>
-      <c r="F16" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="213" t="s">
+      <c r="U16" s="201"/>
+      <c r="V16" s="201"/>
+      <c r="W16" s="201"/>
+      <c r="X16" s="201"/>
+      <c r="Y16" s="202"/>
+      <c r="Z16" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
-      <c r="P16" s="214"/>
-      <c r="Q16" s="212"/>
-      <c r="R16" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="216"/>
-      <c r="T16" s="217" t="s">
-        <v>51</v>
-      </c>
-      <c r="U16" s="218"/>
-      <c r="V16" s="218"/>
-      <c r="W16" s="218"/>
-      <c r="X16" s="218"/>
-      <c r="Y16" s="216"/>
-      <c r="Z16" s="215" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA16" s="218"/>
-      <c r="AB16" s="218"/>
-      <c r="AC16" s="218"/>
-      <c r="AD16" s="218"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI16" s="218"/>
-      <c r="AJ16" s="216"/>
-      <c r="AK16" s="217"/>
-      <c r="AL16" s="218"/>
-      <c r="AM16" s="218"/>
-      <c r="AN16" s="218"/>
-      <c r="AO16" s="218"/>
-      <c r="AP16" s="216"/>
+      <c r="AA16" s="201"/>
+      <c r="AB16" s="201"/>
+      <c r="AC16" s="201"/>
+      <c r="AD16" s="201"/>
+      <c r="AE16" s="201"/>
+      <c r="AF16" s="201"/>
+      <c r="AG16" s="202"/>
+      <c r="AH16" s="200" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI16" s="201"/>
+      <c r="AJ16" s="202"/>
+      <c r="AK16" s="200"/>
+      <c r="AL16" s="201"/>
+      <c r="AM16" s="201"/>
+      <c r="AN16" s="201"/>
+      <c r="AO16" s="201"/>
+      <c r="AP16" s="202"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7903,32 +7943,29 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
     <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="AK13:AP13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7937,6 +7974,14 @@
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -7982,11 +8027,6 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AP12"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6FCCD-BD00-4308-9A76-26B3035F4F2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0B3DA-FBF7-43CC-B119-6E2610DB045C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,19 +769,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>新規登録はプロジェクトマネージャーのみが使用可能だが、メンバーは自身が担当するプロジェクトのみ更新機能を使用可能。</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>コウシンキノウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シヨウ</t>
-    </rPh>
+    <t>プロジェクトマネージャーと更新対象のプロジェクトを担当するメンバーのみ使用可能</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1391,6 +1379,105 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1507,104 +1594,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1615,32 +1612,158 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1648,142 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2280,7 +2268,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2300,7 +2288,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3305,55 +3293,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="94" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="121" t="s">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="87">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="120">
         <v>43404</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="122"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3361,53 +3349,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="94" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="100" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="87">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="120">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="122"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3415,45 +3403,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="122"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3490,1232 +3478,1076 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="E7" s="125"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="93" t="s">
+      <c r="H7" s="125"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="90" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="90" t="s">
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="142">
+      <c r="B8" s="106">
         <v>1</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108">
         <v>43404</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150" t="s">
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="153" t="s">
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="150" t="s">
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="118"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="152"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="116"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="103">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129">
+      <c r="C9" s="104"/>
+      <c r="D9" s="89">
         <v>43804</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="138" t="s">
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="141" t="s">
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="95"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="129">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89">
         <v>43895</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="156" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="138" t="s">
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="135" t="s">
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="95"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="129">
+      <c r="C11" s="88"/>
+      <c r="D11" s="89">
         <v>44796</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="156" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138" t="s">
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="135" t="s">
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="95"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="95"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="95"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="95"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="141"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="95"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="95"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="95"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="95"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="141"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="141"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="95"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="141"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="95"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="141"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="95"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="95"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="139"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="95"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="95"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="95"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="141"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="95"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="141"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="95"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="141"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="94"/>
+      <c r="AI30" s="95"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="141"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="95"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="141"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="95"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="141"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="95"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4739,6 +4571,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4895,163 +4883,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="163" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="164" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="126" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="163" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="164" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="126" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="163" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6514,6 +6502,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6523,14 +6519,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6548,7 +6536,7 @@
   <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6557,163 +6545,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="163" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="182" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="191" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="94" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="126" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="163" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="94" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="126" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="163" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="126" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6769,280 +6757,280 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="166" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="166" t="s">
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="166" t="s">
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="168"/>
-      <c r="T7" s="166" t="s">
+      <c r="S7" s="200"/>
+      <c r="T7" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="166" t="s">
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="166" t="s">
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="168"/>
-      <c r="AK7" s="166" t="s">
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="167"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="167"/>
-      <c r="AO7" s="167"/>
-      <c r="AP7" s="168"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="200"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="173"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="170"/>
-      <c r="AJ8" s="171"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="170"/>
-      <c r="AM8" s="170"/>
-      <c r="AN8" s="170"/>
-      <c r="AO8" s="170"/>
-      <c r="AP8" s="171"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="204"/>
+      <c r="AJ8" s="202"/>
+      <c r="AK8" s="201"/>
+      <c r="AL8" s="204"/>
+      <c r="AM8" s="204"/>
+      <c r="AN8" s="204"/>
+      <c r="AO8" s="204"/>
+      <c r="AP8" s="202"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="181" t="s">
+      <c r="D9" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="F9" s="181" t="s">
+      <c r="E9" s="216"/>
+      <c r="F9" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="181" t="s">
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="177" t="s">
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="176"/>
-      <c r="T9" s="174" t="s">
+      <c r="S9" s="170"/>
+      <c r="T9" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="176"/>
-      <c r="Z9" s="177" t="s">
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="175"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="174" t="s">
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="177" t="s">
+      <c r="AI9" s="172"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="AL9" s="175"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="175"/>
-      <c r="AO9" s="175"/>
-      <c r="AP9" s="176"/>
+      <c r="AL9" s="172"/>
+      <c r="AM9" s="172"/>
+      <c r="AN9" s="172"/>
+      <c r="AO9" s="172"/>
+      <c r="AP9" s="170"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="174" t="s">
+      <c r="D10" s="187"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="176"/>
-      <c r="T10" s="174" t="s">
+      <c r="S10" s="170"/>
+      <c r="T10" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="176"/>
-      <c r="Z10" s="177" t="s">
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="175"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="174" t="s">
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="174"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
-      <c r="AO10" s="175"/>
-      <c r="AP10" s="176"/>
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="172"/>
+      <c r="AM10" s="172"/>
+      <c r="AN10" s="172"/>
+      <c r="AO10" s="172"/>
+      <c r="AP10" s="170"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
         <f t="shared" ref="C11:C16" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178" t="s">
+      <c r="E11" s="216"/>
+      <c r="F11" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178" t="s">
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="174" t="s">
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="176"/>
-      <c r="T11" s="174" t="s">
+      <c r="S11" s="170"/>
+      <c r="T11" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="176"/>
-      <c r="Z11" s="174" t="s">
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="AA11" s="175"/>
-      <c r="AB11" s="175"/>
-      <c r="AC11" s="175"/>
-      <c r="AD11" s="175"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="174" t="s">
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="175"/>
-      <c r="AJ11" s="176"/>
-      <c r="AK11" s="177" t="s">
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="170"/>
+      <c r="AK11" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="AL11" s="175"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="175"/>
-      <c r="AO11" s="175"/>
-      <c r="AP11" s="176"/>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="172"/>
+      <c r="AN11" s="172"/>
+      <c r="AO11" s="172"/>
+      <c r="AP11" s="170"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
@@ -7063,39 +7051,39 @@
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="79"/>
-      <c r="R12" s="177" t="s">
+      <c r="R12" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="176"/>
-      <c r="T12" s="177" t="s">
+      <c r="S12" s="170"/>
+      <c r="T12" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="U12" s="175"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="176"/>
-      <c r="Z12" s="177" t="s">
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AA12" s="175"/>
-      <c r="AB12" s="175"/>
-      <c r="AC12" s="175"/>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="174" t="s">
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="175"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="175"/>
-      <c r="AM12" s="175"/>
-      <c r="AN12" s="175"/>
-      <c r="AO12" s="175"/>
-      <c r="AP12" s="176"/>
+      <c r="AI12" s="172"/>
+      <c r="AJ12" s="170"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="172"/>
+      <c r="AM12" s="172"/>
+      <c r="AN12" s="172"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="170"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
@@ -7116,214 +7104,214 @@
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="82"/>
-      <c r="R13" s="212" t="s">
+      <c r="R13" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="214"/>
-      <c r="T13" s="212" t="s">
+      <c r="S13" s="181"/>
+      <c r="T13" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213"/>
-      <c r="W13" s="213"/>
-      <c r="X13" s="213"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="212" t="s">
+      <c r="U13" s="180"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="213"/>
-      <c r="AC13" s="213"/>
-      <c r="AD13" s="213"/>
-      <c r="AE13" s="213"/>
-      <c r="AF13" s="213"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="212" t="s">
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="180"/>
+      <c r="AC13" s="180"/>
+      <c r="AD13" s="180"/>
+      <c r="AE13" s="180"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="AI13" s="215"/>
-      <c r="AJ13" s="216"/>
-      <c r="AK13" s="212" t="s">
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="183"/>
+      <c r="AK13" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="AL13" s="213"/>
-      <c r="AM13" s="213"/>
-      <c r="AN13" s="213"/>
-      <c r="AO13" s="213"/>
-      <c r="AP13" s="214"/>
+      <c r="AL13" s="180"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="180"/>
+      <c r="AP13" s="181"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="205" t="s">
+      <c r="D14" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="204"/>
-      <c r="F14" s="205" t="s">
+      <c r="E14" s="167"/>
+      <c r="F14" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205" t="s">
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="177" t="s">
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="176"/>
-      <c r="T14" s="174" t="s">
+      <c r="S14" s="170"/>
+      <c r="T14" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="176"/>
-      <c r="Z14" s="174" t="s">
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="175"/>
-      <c r="AB14" s="175"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="174" t="s">
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" s="175"/>
-      <c r="AJ14" s="176"/>
-      <c r="AK14" s="174"/>
-      <c r="AL14" s="175"/>
-      <c r="AM14" s="175"/>
-      <c r="AN14" s="175"/>
-      <c r="AO14" s="175"/>
-      <c r="AP14" s="176"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="172"/>
+      <c r="AO14" s="172"/>
+      <c r="AP14" s="170"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="77">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="177" t="s">
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="S15" s="176"/>
-      <c r="T15" s="174" t="s">
+      <c r="S15" s="170"/>
+      <c r="T15" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="174" t="s">
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="175"/>
-      <c r="AB15" s="175"/>
-      <c r="AC15" s="175"/>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="174" t="s">
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI15" s="175"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="177" t="s">
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="AL15" s="175"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="175"/>
-      <c r="AP15" s="176"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="172"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="170"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16" s="208" t="s">
+      <c r="D16" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="209"/>
-      <c r="F16" s="210" t="s">
+      <c r="E16" s="178"/>
+      <c r="F16" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210" t="s">
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="211"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="207" t="s">
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="202"/>
-      <c r="T16" s="200" t="s">
+      <c r="S16" s="186"/>
+      <c r="T16" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="U16" s="201"/>
-      <c r="V16" s="201"/>
-      <c r="W16" s="201"/>
-      <c r="X16" s="201"/>
-      <c r="Y16" s="202"/>
-      <c r="Z16" s="207" t="s">
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="AA16" s="201"/>
-      <c r="AB16" s="201"/>
-      <c r="AC16" s="201"/>
-      <c r="AD16" s="201"/>
-      <c r="AE16" s="201"/>
-      <c r="AF16" s="201"/>
-      <c r="AG16" s="202"/>
-      <c r="AH16" s="200" t="s">
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="AI16" s="201"/>
-      <c r="AJ16" s="202"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="201"/>
-      <c r="AM16" s="201"/>
-      <c r="AN16" s="201"/>
-      <c r="AO16" s="201"/>
-      <c r="AP16" s="202"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="186"/>
+      <c r="AK16" s="184"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="186"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7943,58 +7931,22 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8011,22 +7963,58 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465C76E-CBD1-4B7E-9853-EAC67DD64FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0B3DA-FBF7-43CC-B119-6E2610DB045C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>PJ名</t>
   </si>
@@ -259,25 +257,10 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザには、以下２つのロールが存在する。
-・マネージャー
-・メンバー</t>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>WA10102</t>
   </si>
   <si>
     <t>ログアウト</t>
-  </si>
-  <si>
-    <t>WA10103</t>
   </si>
   <si>
     <t>TOPメニュー</t>
@@ -299,9 +282,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>WA10104</t>
-  </si>
-  <si>
     <t>汎用エラー</t>
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
@@ -382,16 +362,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>マネージャーのみが使用可能。</t>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -547,16 +517,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>プロジェクトの検索条件を入力し、検索条件に該当するプロジェクトの一覧を表示する。一覧のリンクを押下するとプロジェクトのデータ1件の詳細画面を表示する。</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
@@ -669,6 +629,148 @@
       <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトで共通的に使用する機能を提供する。</t>
+    <rPh sb="7" eb="10">
+      <t>キョウツウテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10302</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>エラー内容単位にメッセージを変更する。</t>
+    <rPh sb="3" eb="7">
+      <t>ナイヨウタンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>・TOPメニュー、汎用エラーを共通に分類見直し
+・更新処理の利用権限について要件に合わせて尾行を修正（未実装機能を吹き出しで追記）</t>
+    <rPh sb="9" eb="11">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コウシンショリ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>リヨウケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザには、以下２つのロールが存在する。
+・プロジェクトマネージャー
+・メンバー</t>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャーのみが使用可能。</t>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャーと更新対象のプロジェクトを担当するメンバーのみ使用可能</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -816,7 +918,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1175,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1264,7 +1372,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1503,6 +1612,45 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1518,40 +1666,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,8 +1827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2056,6 +2186,128 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>454269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>378070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B8078B-8B12-4421-983A-C65C19BE4AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12492403" y="3077307"/>
+          <a:ext cx="1466850" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では権限による更新制御は未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2384,103 +2636,103 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="11"/>
-    <col min="10" max="10" width="16.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="11"/>
+    <col min="1" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="10" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="85">
+      <c r="I25" s="86">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-    </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44796</v>
+      </c>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="15"/>
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="15"/>
       <c r="H33" s="15"/>
       <c r="J33" s="18"/>
@@ -2490,7 +2742,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="15"/>
       <c r="H34" s="15"/>
       <c r="J34" s="31"/>
@@ -2503,522 +2755,522 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="29"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3032,64 +3284,64 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="Q16" sqref="Q16:AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="153" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="119">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="120">
         <v>43404</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="122"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3097,53 +3349,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="126" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="120">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="122"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3151,45 +3403,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="122"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3226,1058 +3478,1072 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="125"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="125"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="106">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108">
         <v>43404</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="118"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="116"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="103">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="104"/>
+      <c r="D9" s="89">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="95"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="B10" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="100" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
-    </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="95"/>
+    </row>
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="95"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="95"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="95"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="95"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="95"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="95"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="95"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="95"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="95"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="95"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="95"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="95"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="95"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="95"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="95"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="95"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="95"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="94"/>
+      <c r="AI30" s="95"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="95"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="95"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="95"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
@@ -4481,299 +4747,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="44"/>
-    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="44"/>
-    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="44"/>
-    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="44"/>
-    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="44"/>
-    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="44"/>
-    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="44"/>
-    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="44"/>
-    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="44"/>
-    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="44"/>
-    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="44"/>
-    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="44"/>
-    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="44"/>
-    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="44"/>
-    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="44"/>
-    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="44"/>
-    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="44"/>
-    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="44"/>
-    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="44"/>
-    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="44"/>
-    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="44"/>
-    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="44"/>
-    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="44"/>
-    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="44"/>
-    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="44"/>
-    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="44"/>
-    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="44"/>
-    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="44"/>
-    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="44"/>
-    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="44"/>
-    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="44"/>
-    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="44"/>
-    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="44"/>
-    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="44"/>
-    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="44"/>
-    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="44"/>
-    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="44"/>
-    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="44"/>
-    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="44"/>
-    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="44"/>
-    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="44"/>
-    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="44"/>
-    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="44"/>
-    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="44"/>
-    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="44"/>
-    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="44"/>
-    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="44"/>
-    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="44"/>
-    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="44"/>
-    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="44"/>
-    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="44"/>
-    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="44"/>
-    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="44"/>
-    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="44"/>
-    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="44"/>
-    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="44"/>
-    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="44"/>
-    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="44"/>
-    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="44"/>
-    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="44"/>
-    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="44"/>
-    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="44"/>
-    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="44"/>
-    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="44"/>
+    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="44"/>
+    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="44"/>
+    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="44"/>
+    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="44"/>
+    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="44"/>
+    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="44"/>
+    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="44"/>
+    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="44"/>
+    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="44"/>
+    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="44"/>
+    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="44"/>
+    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="44"/>
+    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="44"/>
+    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="44"/>
+    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="44"/>
+    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="44"/>
+    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="44"/>
+    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="44"/>
+    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="44"/>
+    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="44"/>
+    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="44"/>
+    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="44"/>
+    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="44"/>
+    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="44"/>
+    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="44"/>
+    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="44"/>
+    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="44"/>
+    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="44"/>
+    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="44"/>
+    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="44"/>
+    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="44"/>
+    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="44"/>
+    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="44"/>
+    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="44"/>
+    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="44"/>
+    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="44"/>
+    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="44"/>
+    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="44"/>
+    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="44"/>
+    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="44"/>
+    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="44"/>
+    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="44"/>
+    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="44"/>
+    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="44"/>
+    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="44"/>
+    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="44"/>
+    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="44"/>
+    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="44"/>
+    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="44"/>
+    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="44"/>
+    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="44"/>
+    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="44"/>
+    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="44"/>
+    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="44"/>
+    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="44"/>
+    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="44"/>
+    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="44"/>
+    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="44"/>
+    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="44"/>
+    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="44"/>
+    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="44"/>
+    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="44"/>
+    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="44"/>
+    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="135" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5818,7 +6084,7 @@
       <c r="AH31" s="52"/>
       <c r="AI31" s="53"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="55"/>
       <c r="C32" s="37"/>
@@ -5892,7 +6158,7 @@
       <c r="AH33" s="52"/>
       <c r="AI33" s="53"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="55"/>
       <c r="C34" s="37"/>
@@ -6273,169 +6539,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="8"/>
+    <col min="1" max="16384" width="4.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="182" t="str">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="162">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6485,559 +6751,567 @@
       <c r="AP4" s="7"/>
     </row>
     <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="191" t="s">
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="195"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="191" t="s">
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="192"/>
-      <c r="T7" s="191" t="s">
+      <c r="S7" s="200"/>
+      <c r="T7" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="191" t="s">
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="195"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="191" t="s">
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="195"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="191" t="s">
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="195"/>
-      <c r="AM7" s="195"/>
-      <c r="AN7" s="195"/>
-      <c r="AO7" s="195"/>
-      <c r="AP7" s="192"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="200"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="210"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="196"/>
-      <c r="AG8" s="194"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="196"/>
-      <c r="AJ8" s="194"/>
-      <c r="AK8" s="193"/>
-      <c r="AL8" s="196"/>
-      <c r="AM8" s="196"/>
-      <c r="AN8" s="196"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="194"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="204"/>
+      <c r="AJ8" s="202"/>
+      <c r="AK8" s="201"/>
+      <c r="AL8" s="204"/>
+      <c r="AM8" s="204"/>
+      <c r="AN8" s="204"/>
+      <c r="AO8" s="204"/>
+      <c r="AP8" s="202"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="206" t="s">
+      <c r="E9" s="216"/>
+      <c r="F9" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="206" t="s">
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="170" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="171"/>
-      <c r="T9" s="172" t="s">
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="170"/>
+      <c r="T9" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="172" t="s">
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL9" s="173"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="173"/>
-      <c r="AO9" s="173"/>
-      <c r="AP9" s="171"/>
+      <c r="AI9" s="172"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL9" s="172"/>
+      <c r="AM9" s="172"/>
+      <c r="AN9" s="172"/>
+      <c r="AO9" s="172"/>
+      <c r="AP9" s="170"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="172" t="s">
+      <c r="D10" s="187"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="170"/>
+      <c r="T10" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="171"/>
-      <c r="T10" s="172" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="172" t="s">
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="173"/>
-      <c r="AM10" s="173"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="171"/>
-    </row>
-    <row r="11" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="172"/>
+      <c r="AM10" s="172"/>
+      <c r="AN10" s="172"/>
+      <c r="AO10" s="172"/>
+      <c r="AP10" s="170"/>
+    </row>
+    <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
-        <f t="shared" ref="C11:C13" si="0">C10+1</f>
+        <f t="shared" ref="C11:C16" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="171"/>
-      <c r="T11" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="172" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="171"/>
-      <c r="AH11" s="172" t="s">
+      <c r="D11" s="219" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="216"/>
+      <c r="F11" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="219" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="170"/>
+      <c r="T11" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="171"/>
-      <c r="AK11" s="172"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="171"/>
-    </row>
-    <row r="12" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="170"/>
+      <c r="AK11" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="172"/>
+      <c r="AN11" s="172"/>
+      <c r="AO11" s="172"/>
+      <c r="AP11" s="170"/>
+    </row>
+    <row r="12" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="171"/>
-      <c r="T12" s="172" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="172" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="172" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="170"/>
+      <c r="T12" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="171"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="173"/>
-      <c r="AN12" s="173"/>
-      <c r="AO12" s="173"/>
-      <c r="AP12" s="171"/>
-    </row>
-    <row r="13" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI12" s="172"/>
+      <c r="AJ12" s="170"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="172"/>
+      <c r="AM12" s="172"/>
+      <c r="AN12" s="172"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="170"/>
+    </row>
+    <row r="13" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="207"/>
-      <c r="M13" s="207"/>
-      <c r="N13" s="207"/>
-      <c r="O13" s="207"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="171"/>
-      <c r="T13" s="172" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="181"/>
+      <c r="T13" s="179" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="180"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="180"/>
+      <c r="AC13" s="180"/>
+      <c r="AD13" s="180"/>
+      <c r="AE13" s="180"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="183"/>
+      <c r="AK13" s="179" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL13" s="180"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="180"/>
+      <c r="AP13" s="181"/>
+    </row>
+    <row r="14" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="77">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="167"/>
+      <c r="F14" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="170"/>
+      <c r="T14" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="171" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="172"/>
+      <c r="AO14" s="172"/>
+      <c r="AP14" s="170"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="77">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="170"/>
+      <c r="T15" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="171" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="172"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="170"/>
+    </row>
+    <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="85">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="172" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="171"/>
-      <c r="AK13" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="173"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="171"/>
-    </row>
-    <row r="14" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="77">
-        <f>C13+1</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="170" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="171"/>
-      <c r="T14" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="170"/>
-      <c r="AL14" s="173"/>
-      <c r="AM14" s="173"/>
-      <c r="AN14" s="173"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="171"/>
-    </row>
-    <row r="15" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="84">
-        <f>C14+1</f>
-        <v>7</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="167"/>
-      <c r="T15" s="165" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="166"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA15" s="166"/>
-      <c r="AB15" s="166"/>
-      <c r="AC15" s="166"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="166"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="165" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="165" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL15" s="166"/>
-      <c r="AM15" s="166"/>
-      <c r="AN15" s="166"/>
-      <c r="AO15" s="166"/>
-      <c r="AP15" s="167"/>
-    </row>
-    <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="77">
-        <f>C15+1</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="175"/>
+      <c r="E16" s="178"/>
       <c r="F16" s="176" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16" s="177"/>
       <c r="H16" s="177"/>
       <c r="I16" s="177"/>
-      <c r="J16" s="175"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="176" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L16" s="177"/>
       <c r="M16" s="177"/>
       <c r="N16" s="177"/>
       <c r="O16" s="177"/>
       <c r="P16" s="177"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="170" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="171"/>
-      <c r="T16" s="172" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="172" t="s">
+      <c r="Q16" s="178"/>
+      <c r="R16" s="188" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="186"/>
+      <c r="T16" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="171"/>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="173"/>
-      <c r="AP16" s="171"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="184" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="186"/>
+      <c r="AK16" s="184"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="186"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7657,21 +7931,16 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
     <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
     <mergeCell ref="AK7:AP8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="AK9:AP9"/>
@@ -7707,46 +7976,52 @@
     <mergeCell ref="T7:Y8"/>
     <mergeCell ref="Z7:AG8"/>
     <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:Y16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
     <mergeCell ref="Z15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0B3DA-FBF7-43CC-B119-6E2610DB045C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F6FFE-D710-4AE7-9496-F90DC3FF066B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>PJ名</t>
   </si>
@@ -237,27 +237,11 @@
     <t>ログイン</t>
   </si>
   <si>
-    <t>プロジェクト管理画面へのログイン機能を提供する。</t>
-    <rPh sb="6" eb="10">
-      <t>カンリガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>WA10102</t>
   </si>
   <si>
     <t>ログアウト</t>
@@ -770,6 +754,33 @@
   </si>
   <si>
     <t>プロジェクトマネージャーと更新対象のプロジェクトを担当するメンバーのみ使用可能</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクト管理システムへの認証機能を提供する。</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>WA10102</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1379,105 +1390,6 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1594,6 +1506,114 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1603,35 +1623,158 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1640,138 +1783,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2678,7 +2689,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3293,55 +3304,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="120">
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="87">
         <v>43404</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3349,53 +3360,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="100" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="120">
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="87">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3403,45 +3414,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3478,1076 +3489,1232 @@
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="126" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="123" t="s">
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="91"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="142">
         <v>1</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108">
+      <c r="C8" s="143"/>
+      <c r="D8" s="144">
         <v>43404</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111" t="s">
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114" t="s">
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="116"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="152"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="103">
+      <c r="B9" s="127">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="89">
+      <c r="C9" s="128"/>
+      <c r="D9" s="129">
         <v>43804</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="100" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="95"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89">
+      <c r="B10" s="156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129">
         <v>43895</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="95"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89">
+      <c r="B11" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129">
         <v>44796</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="95"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="95"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="95"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="95"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="95"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="95"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="141"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="95"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="95"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="95"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="141"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="95"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="141"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="95"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="94"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="95"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="95"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="95"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="141"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="95"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="141"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="95"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="95"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="141"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="95"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="141"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="95"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="141"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="95"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4571,162 +4738,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4883,163 +4894,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="160" t="str">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="163">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="165"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="160" t="str">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="163">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="165"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="160" t="str">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="163" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="165"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6502,14 +6513,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6519,6 +6522,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -6545,163 +6556,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="160" t="str">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="190" t="str">
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="163">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="165"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="160" t="str">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="163">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="165"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="160" t="str">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="163" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="165"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6757,280 +6768,280 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="217" t="s">
+      <c r="C7" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="199" t="s">
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="199" t="s">
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="200"/>
-      <c r="T7" s="199" t="s">
+      <c r="S7" s="168"/>
+      <c r="T7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="199" t="s">
+      <c r="U7" s="167"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="199" t="s">
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="199" t="s">
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="168"/>
+      <c r="AK7" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="203"/>
-      <c r="AM7" s="203"/>
-      <c r="AN7" s="203"/>
-      <c r="AO7" s="203"/>
-      <c r="AP7" s="200"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="167"/>
+      <c r="AP7" s="168"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="218"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="201"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="201"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="201"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="202"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="204"/>
-      <c r="AJ8" s="202"/>
-      <c r="AK8" s="201"/>
-      <c r="AL8" s="204"/>
-      <c r="AM8" s="204"/>
-      <c r="AN8" s="204"/>
-      <c r="AO8" s="204"/>
-      <c r="AP8" s="202"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="171"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="77">
         <v>1</v>
       </c>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="216"/>
-      <c r="F9" s="214" t="s">
+      <c r="E9" s="179"/>
+      <c r="F9" s="181" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="177" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="176"/>
+      <c r="T9" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="214" t="s">
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="176"/>
+      <c r="Z9" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI9" s="172"/>
-      <c r="AJ9" s="170"/>
-      <c r="AK9" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL9" s="172"/>
-      <c r="AM9" s="172"/>
-      <c r="AN9" s="172"/>
-      <c r="AO9" s="172"/>
-      <c r="AP9" s="170"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="177" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="176"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="170"/>
-      <c r="T10" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="169" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="171" t="s">
+      <c r="D10" s="200"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" s="176"/>
+      <c r="T10" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" s="172"/>
-      <c r="AJ10" s="170"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="172"/>
-      <c r="AM10" s="172"/>
-      <c r="AN10" s="172"/>
-      <c r="AO10" s="172"/>
-      <c r="AP10" s="170"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI10" s="175"/>
+      <c r="AJ10" s="176"/>
+      <c r="AK10" s="174"/>
+      <c r="AL10" s="175"/>
+      <c r="AM10" s="175"/>
+      <c r="AN10" s="175"/>
+      <c r="AO10" s="175"/>
+      <c r="AP10" s="176"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
         <f t="shared" ref="C11:C16" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="219" t="s">
+      <c r="D11" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="179"/>
+      <c r="F11" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="216"/>
-      <c r="F11" s="219" t="s">
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="219" t="s">
+      <c r="S11" s="176"/>
+      <c r="T11" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="171" t="s">
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="170"/>
-      <c r="T11" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="171" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI11" s="172"/>
-      <c r="AJ11" s="170"/>
-      <c r="AK11" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL11" s="172"/>
-      <c r="AM11" s="172"/>
-      <c r="AN11" s="172"/>
-      <c r="AO11" s="172"/>
-      <c r="AP11" s="170"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="175"/>
+      <c r="AJ11" s="176"/>
+      <c r="AK11" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL11" s="175"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="176"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="77">
@@ -7051,39 +7062,39 @@
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="79"/>
-      <c r="R12" s="169" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="170"/>
-      <c r="T12" s="169" t="s">
-        <v>76</v>
-      </c>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="169" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="170"/>
-      <c r="AH12" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI12" s="172"/>
-      <c r="AJ12" s="170"/>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="172"/>
-      <c r="AM12" s="172"/>
-      <c r="AN12" s="172"/>
-      <c r="AO12" s="172"/>
-      <c r="AP12" s="170"/>
+      <c r="R12" s="177" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="176"/>
+      <c r="T12" s="177" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI12" s="175"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="175"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="175"/>
+      <c r="AP12" s="176"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="77">
@@ -7104,214 +7115,214 @@
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="82"/>
-      <c r="R13" s="179" t="s">
+      <c r="R13" s="212" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="214"/>
+      <c r="T13" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="213"/>
+      <c r="X13" s="213"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="212" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="213"/>
+      <c r="AB13" s="213"/>
+      <c r="AC13" s="213"/>
+      <c r="AD13" s="213"/>
+      <c r="AE13" s="213"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="181"/>
-      <c r="T13" s="179" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="180"/>
-      <c r="V13" s="180"/>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="181"/>
-      <c r="Z13" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" s="180"/>
-      <c r="AB13" s="180"/>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="180"/>
-      <c r="AE13" s="180"/>
-      <c r="AF13" s="180"/>
-      <c r="AG13" s="181"/>
-      <c r="AH13" s="179" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI13" s="182"/>
-      <c r="AJ13" s="183"/>
-      <c r="AK13" s="179" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL13" s="180"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="181"/>
+      <c r="AI13" s="215"/>
+      <c r="AJ13" s="216"/>
+      <c r="AK13" s="212" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL13" s="213"/>
+      <c r="AM13" s="213"/>
+      <c r="AN13" s="213"/>
+      <c r="AO13" s="213"/>
+      <c r="AP13" s="214"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="202" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="166" t="s">
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="169" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="170"/>
-      <c r="T14" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="171" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI14" s="172"/>
-      <c r="AJ14" s="170"/>
-      <c r="AK14" s="171"/>
-      <c r="AL14" s="172"/>
-      <c r="AM14" s="172"/>
-      <c r="AN14" s="172"/>
-      <c r="AO14" s="172"/>
-      <c r="AP14" s="170"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI14" s="175"/>
+      <c r="AJ14" s="176"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="175"/>
+      <c r="AM14" s="175"/>
+      <c r="AN14" s="175"/>
+      <c r="AO14" s="175"/>
+      <c r="AP14" s="176"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="77">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="169" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" s="170"/>
-      <c r="T15" s="171" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="172"/>
-      <c r="AF15" s="172"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI15" s="172"/>
-      <c r="AJ15" s="170"/>
-      <c r="AK15" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL15" s="172"/>
-      <c r="AM15" s="172"/>
-      <c r="AN15" s="172"/>
-      <c r="AO15" s="172"/>
-      <c r="AP15" s="170"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="176"/>
+      <c r="T15" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="175"/>
+      <c r="AJ15" s="176"/>
+      <c r="AK15" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" s="175"/>
+      <c r="AM15" s="175"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="175"/>
+      <c r="AP15" s="176"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16" s="189" t="s">
+      <c r="D16" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="210" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="204" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="206"/>
+      <c r="T16" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="176" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="176" t="s">
+      <c r="U16" s="205"/>
+      <c r="V16" s="205"/>
+      <c r="W16" s="205"/>
+      <c r="X16" s="205"/>
+      <c r="Y16" s="206"/>
+      <c r="Z16" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="188" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="186"/>
-      <c r="T16" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="188" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="185"/>
-      <c r="AG16" s="186"/>
-      <c r="AH16" s="184" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI16" s="185"/>
-      <c r="AJ16" s="186"/>
-      <c r="AK16" s="184"/>
-      <c r="AL16" s="185"/>
-      <c r="AM16" s="185"/>
-      <c r="AN16" s="185"/>
-      <c r="AO16" s="185"/>
-      <c r="AP16" s="186"/>
+      <c r="AA16" s="205"/>
+      <c r="AB16" s="205"/>
+      <c r="AC16" s="205"/>
+      <c r="AD16" s="205"/>
+      <c r="AE16" s="205"/>
+      <c r="AF16" s="205"/>
+      <c r="AG16" s="206"/>
+      <c r="AH16" s="207" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="205"/>
+      <c r="AJ16" s="206"/>
+      <c r="AK16" s="207"/>
+      <c r="AL16" s="205"/>
+      <c r="AM16" s="205"/>
+      <c r="AN16" s="205"/>
+      <c r="AO16" s="205"/>
+      <c r="AP16" s="206"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
@@ -7931,6 +7942,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z11:AG11"/>
@@ -7947,74 +8026,6 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F6FFE-D710-4AE7-9496-F90DC3FF066B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F68355-66CE-4B13-8A8E-42AE789E419E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>PJ名</t>
   </si>
@@ -234,9 +234,6 @@
     <t>A101</t>
   </si>
   <si>
-    <t>ログイン</t>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -244,9 +241,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
     <t>TOPメニュー</t>
   </si>
   <si>
@@ -398,26 +392,6 @@
   <si>
     <t>WA10101</t>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザに対し、ユーザID・パスワードでのForm認証を行う。</t>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログイン中のユーザをログアウトさせる。</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
@@ -780,8 +754,25 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>WA10102</t>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザに対し、ユーザID・パスワードでのForm認証を行う。
+ログイン中のユーザをログアウトさせる。</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1186,7 +1177,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1725,57 +1716,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1783,6 +1768,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2203,13 +2191,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>241788</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>454269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>378070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2689,7 +2677,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,7 +3299,7 @@
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
       <c r="E1" s="97" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="98"/>
       <c r="G1" s="98"/>
@@ -3343,7 +3331,7 @@
       </c>
       <c r="AB1" s="96"/>
       <c r="AC1" s="121" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD1" s="122"/>
       <c r="AE1" s="122"/>
@@ -3367,7 +3355,7 @@
       <c r="C2" s="95"/>
       <c r="D2" s="96"/>
       <c r="E2" s="97" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="98"/>
       <c r="G2" s="98"/>
@@ -3421,7 +3409,7 @@
       <c r="C3" s="95"/>
       <c r="D3" s="96"/>
       <c r="E3" s="97" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="98"/>
       <c r="G3" s="98"/>
@@ -3550,12 +3538,12 @@
       <c r="E8" s="145"/>
       <c r="F8" s="146"/>
       <c r="G8" s="147" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" s="148"/>
       <c r="I8" s="149"/>
       <c r="J8" s="150" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K8" s="151"/>
       <c r="L8" s="151"/>
@@ -3564,7 +3552,7 @@
       <c r="O8" s="151"/>
       <c r="P8" s="152"/>
       <c r="Q8" s="153" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R8" s="154"/>
       <c r="S8" s="154"/>
@@ -3581,7 +3569,7 @@
       <c r="AD8" s="154"/>
       <c r="AE8" s="155"/>
       <c r="AF8" s="150" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="151"/>
       <c r="AH8" s="151"/>
@@ -3601,12 +3589,12 @@
       <c r="E9" s="130"/>
       <c r="F9" s="131"/>
       <c r="G9" s="132" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="133"/>
       <c r="I9" s="134"/>
       <c r="J9" s="135" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K9" s="136"/>
       <c r="L9" s="136"/>
@@ -3615,7 +3603,7 @@
       <c r="O9" s="136"/>
       <c r="P9" s="137"/>
       <c r="Q9" s="138" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R9" s="139"/>
       <c r="S9" s="139"/>
@@ -3632,7 +3620,7 @@
       <c r="AD9" s="139"/>
       <c r="AE9" s="140"/>
       <c r="AF9" s="141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AG9" s="136"/>
       <c r="AH9" s="136"/>
@@ -3643,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="129">
@@ -3657,7 +3645,7 @@
       <c r="H10" s="133"/>
       <c r="I10" s="134"/>
       <c r="J10" s="135" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K10" s="136"/>
       <c r="L10" s="136"/>
@@ -3666,7 +3654,7 @@
       <c r="O10" s="136"/>
       <c r="P10" s="137"/>
       <c r="Q10" s="138" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R10" s="139"/>
       <c r="S10" s="139"/>
@@ -3683,7 +3671,7 @@
       <c r="AD10" s="139"/>
       <c r="AE10" s="140"/>
       <c r="AF10" s="135" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="136"/>
       <c r="AH10" s="136"/>
@@ -3694,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="134"/>
       <c r="D11" s="129">
@@ -3703,12 +3691,12 @@
       <c r="E11" s="130"/>
       <c r="F11" s="131"/>
       <c r="G11" s="156" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" s="133"/>
       <c r="I11" s="134"/>
       <c r="J11" s="135" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K11" s="136"/>
       <c r="L11" s="136"/>
@@ -3717,7 +3705,7 @@
       <c r="O11" s="136"/>
       <c r="P11" s="137"/>
       <c r="Q11" s="138" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R11" s="139"/>
       <c r="S11" s="139"/>
@@ -3734,7 +3722,7 @@
       <c r="AD11" s="139"/>
       <c r="AE11" s="140"/>
       <c r="AF11" s="135" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="136"/>
       <c r="AH11" s="136"/>
@@ -6544,7 +6532,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6878,14 +6866,14 @@
       </c>
       <c r="E9" s="179"/>
       <c r="F9" s="181" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G9" s="180"/>
       <c r="H9" s="180"/>
       <c r="I9" s="180"/>
       <c r="J9" s="179"/>
       <c r="K9" s="181" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L9" s="180"/>
       <c r="M9" s="180"/>
@@ -6894,11 +6882,11 @@
       <c r="P9" s="180"/>
       <c r="Q9" s="179"/>
       <c r="R9" s="177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S9" s="176"/>
-      <c r="T9" s="174" t="s">
-        <v>31</v>
+      <c r="T9" s="177" t="s">
+        <v>86</v>
       </c>
       <c r="U9" s="175"/>
       <c r="V9" s="175"/>
@@ -6906,7 +6894,7 @@
       <c r="X9" s="175"/>
       <c r="Y9" s="176"/>
       <c r="Z9" s="177" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="AA9" s="175"/>
       <c r="AB9" s="175"/>
@@ -6916,12 +6904,12 @@
       <c r="AF9" s="175"/>
       <c r="AG9" s="176"/>
       <c r="AH9" s="174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI9" s="175"/>
       <c r="AJ9" s="176"/>
       <c r="AK9" s="177" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AL9" s="175"/>
       <c r="AM9" s="175"/>
@@ -6929,39 +6917,45 @@
       <c r="AO9" s="175"/>
       <c r="AP9" s="176"/>
     </row>
-    <row r="10" spans="1:42" s="7" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="77">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="177" t="s">
-        <v>90</v>
+      <c r="D10" s="178" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="174" t="s">
+        <v>39</v>
       </c>
       <c r="S10" s="176"/>
       <c r="T10" s="174" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U10" s="175"/>
       <c r="V10" s="175"/>
       <c r="W10" s="175"/>
       <c r="X10" s="175"/>
       <c r="Y10" s="176"/>
-      <c r="Z10" s="177" t="s">
-        <v>51</v>
+      <c r="Z10" s="174" t="s">
+        <v>41</v>
       </c>
       <c r="AA10" s="175"/>
       <c r="AB10" s="175"/>
@@ -6971,56 +6965,52 @@
       <c r="AF10" s="175"/>
       <c r="AG10" s="176"/>
       <c r="AH10" s="174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="175"/>
       <c r="AJ10" s="176"/>
-      <c r="AK10" s="174"/>
+      <c r="AK10" s="177" t="s">
+        <v>82</v>
+      </c>
       <c r="AL10" s="175"/>
       <c r="AM10" s="175"/>
       <c r="AN10" s="175"/>
       <c r="AO10" s="175"/>
       <c r="AP10" s="176"/>
     </row>
-    <row r="11" spans="1:42" s="7" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:42" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="77">
-        <f t="shared" ref="C11:C16" si="0">C10+1</f>
+        <f t=